--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC87E0A-1DB7-EB48-B513-B81615E98810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757F2FCC-BEF4-CD47-B6A5-FEA2EB14F7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="37640" windowHeight="21140" activeTab="3" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
     <sheet name="Noun" sheetId="3" r:id="rId2"/>
+    <sheet name="Verb (perfect imperfect)" sheetId="4" r:id="rId3"/>
+    <sheet name="Noun (forms)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,19 +36,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="20">
   <si>
     <t>שׁמר</t>
   </si>
   <si>
     <t>סוּס</t>
   </si>
+  <si>
+    <t>Imperfect</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Masc</t>
+  </si>
+  <si>
+    <t>Fem</t>
+  </si>
+  <si>
+    <t>Plural</t>
+  </si>
+  <si>
+    <t>שָׁמַר</t>
+  </si>
+  <si>
+    <t>שָֽׁמְרָה</t>
+  </si>
+  <si>
+    <t>שָֽׁמְרוּ</t>
+  </si>
+  <si>
+    <t>יִשְׁמֹר</t>
+  </si>
+  <si>
+    <t>תִּשְׁמֹר</t>
+  </si>
+  <si>
+    <t>יִשְׁמְרוּ</t>
+  </si>
+  <si>
+    <t>Singular</t>
+  </si>
+  <si>
+    <t>Dual</t>
+  </si>
+  <si>
+    <t>סוּסִים</t>
+  </si>
+  <si>
+    <t>סוּסַ֫יִם</t>
+  </si>
+  <si>
+    <t>סוּסָה</t>
+  </si>
+  <si>
+    <t>סוּסוֹת</t>
+  </si>
+  <si>
+    <t>סוּסָתַ֫יִם</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,6 +124,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -77,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -85,14 +164,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -411,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447A2566-54B9-A94D-89CF-EA16990C57A9}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1212,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8506E0-DCB5-E548-8147-9106134BEDE6}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -1803,4 +1959,1448 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2376BC-DBFD-154D-A23B-AF47B3CE2A9A}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:G20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F4E82F-20A4-114F-B9A0-20D04133CB11}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757F2FCC-BEF4-CD47-B6A5-FEA2EB14F7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76327CB-F53E-5B4C-B893-452FC9B28BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="37640" windowHeight="21140" activeTab="3" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="32840" windowHeight="20540" activeTab="4" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
     <sheet name="Noun" sheetId="3" r:id="rId2"/>
     <sheet name="Verb (perfect imperfect)" sheetId="4" r:id="rId3"/>
     <sheet name="Noun (forms)" sheetId="6" r:id="rId4"/>
+    <sheet name="That, this" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="34">
   <si>
     <t>שׁמר</t>
   </si>
@@ -97,12 +98,54 @@
   <si>
     <t>סוּסָתַ֫יִם</t>
   </si>
+  <si>
+    <t>This (m. sg.)</t>
+  </si>
+  <si>
+    <t>This (f. sg.)</t>
+  </si>
+  <si>
+    <t>These (pl.)</t>
+  </si>
+  <si>
+    <t>That (m. sg.)</t>
+  </si>
+  <si>
+    <t>That (f. sg.)</t>
+  </si>
+  <si>
+    <t>Those (m. pl.)</t>
+  </si>
+  <si>
+    <t>Those (f. pl.)</t>
+  </si>
+  <si>
+    <t>זֶה</t>
+  </si>
+  <si>
+    <t>זֹאת</t>
+  </si>
+  <si>
+    <t>אֵ֫לֶּה</t>
+  </si>
+  <si>
+    <t>הוּא</t>
+  </si>
+  <si>
+    <t>הִיא</t>
+  </si>
+  <si>
+    <t>הֵם, הֵ֫מָּה</t>
+  </si>
+  <si>
+    <t>הֵן ,הֵ֫נָּה</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +190,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -193,11 +243,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -225,6 +408,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -243,14 +434,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1977,17 +2180,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2011,23 +2214,23 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2352,17 +2555,17 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -2741,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F4E82F-20A4-114F-B9A0-20D04133CB11}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -2754,16 +2957,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2784,20 +2987,20 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3074,16 +3277,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -3403,4 +3606,416 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15438D8A-5D82-4B49-BC3F-E9F4A1820D7A}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="42"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="42"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="42"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="42"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="44"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="42"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="42"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="42"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="42"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="42"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76327CB-F53E-5B4C-B893-452FC9B28BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6693A21D-746D-C843-A860-543A5A137443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="32840" windowHeight="20540" activeTab="4" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="33600" windowHeight="21000" activeTab="6" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
     <sheet name="Noun" sheetId="3" r:id="rId2"/>
     <sheet name="Verb (perfect imperfect)" sheetId="4" r:id="rId3"/>
     <sheet name="Noun (forms)" sheetId="6" r:id="rId4"/>
-    <sheet name="That, this" sheetId="7" r:id="rId5"/>
+    <sheet name="Contruct Forms" sheetId="9" r:id="rId5"/>
+    <sheet name="That, this" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="45">
   <si>
     <t>שׁמר</t>
   </si>
@@ -139,6 +141,39 @@
   </si>
   <si>
     <t>הֵן ,הֵ֫נָּה</t>
+  </si>
+  <si>
+    <t>סוּס-֫</t>
+  </si>
+  <si>
+    <t>סוּסֵי-֫</t>
+  </si>
+  <si>
+    <t>סוּסוֹת-֫</t>
+  </si>
+  <si>
+    <t>סוּסַת-֫</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
 </sst>
 </file>
@@ -380,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -416,22 +451,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -454,6 +474,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2180,17 +2223,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2555,17 +2598,17 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -2944,7 +2987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F4E82F-20A4-114F-B9A0-20D04133CB11}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -2957,16 +3000,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -3277,16 +3320,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -3609,11 +3652,570 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF5A6BC-C11A-0E45-9DEE-DEAF7BFB8F64}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="47"/>
+    </row>
+    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15438D8A-5D82-4B49-BC3F-E9F4A1820D7A}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3631,384 +4233,384 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="30"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="30"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="30"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="30"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="30"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="30"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="30"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="30"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="30"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="30"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="30"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="30"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="30"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="30"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="27"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="30"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="30"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="30"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="30"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="30"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="30"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="30"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="30"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="30"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="30"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="30"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="30"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="30"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="30"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="30"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="30"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4018,4 +4620,803 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9187CC4-7C5D-724F-A0F9-D4348E82F7CE}">
+  <dimension ref="A1:J66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="8.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+    </row>
+    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+    </row>
+    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+    </row>
+    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+    </row>
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+    </row>
+    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+    </row>
+    <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+    </row>
+    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+    </row>
+    <row r="40" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+    </row>
+    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+    </row>
+    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+    </row>
+    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+    </row>
+    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+    </row>
+    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+    </row>
+    <row r="50" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+    </row>
+    <row r="51" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+    </row>
+    <row r="54" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+    </row>
+    <row r="55" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+    </row>
+    <row r="56" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+    </row>
+    <row r="59" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+    </row>
+    <row r="60" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:J31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6693A21D-746D-C843-A860-543A5A137443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A99F6E-0B7D-44D5-AC83-5C73FCE7B0A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="33600" windowHeight="21000" activeTab="6" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="-110" yWindow="-21710" windowWidth="38620" windowHeight="21820" activeTab="8" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="Noun (forms)" sheetId="6" r:id="rId4"/>
     <sheet name="Contruct Forms" sheetId="9" r:id="rId5"/>
     <sheet name="That, this" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="Vowels" sheetId="10" r:id="rId7"/>
+    <sheet name="Pronominal Singular" sheetId="14" r:id="rId8"/>
+    <sheet name="Pronominal Plural" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="67">
   <si>
     <t>שׁמר</t>
   </si>
@@ -175,12 +177,78 @@
   <si>
     <t>Long</t>
   </si>
+  <si>
+    <t>Pronominal Plural</t>
+  </si>
+  <si>
+    <t>3ms</t>
+  </si>
+  <si>
+    <t>3fs</t>
+  </si>
+  <si>
+    <t>1cs</t>
+  </si>
+  <si>
+    <t>2fs</t>
+  </si>
+  <si>
+    <t>2ms</t>
+  </si>
+  <si>
+    <t>סוּסוֹ</t>
+  </si>
+  <si>
+    <t>סוּסָהּ</t>
+  </si>
+  <si>
+    <t>סוּסֵךְ</t>
+  </si>
+  <si>
+    <t>סוּסְךָ</t>
+  </si>
+  <si>
+    <t>סוּסִי</t>
+  </si>
+  <si>
+    <t>סוּסֵנוּ</t>
+  </si>
+  <si>
+    <t>Pronominal Singular</t>
+  </si>
+  <si>
+    <t>1cp</t>
+  </si>
+  <si>
+    <t>2fp</t>
+  </si>
+  <si>
+    <t>2mp</t>
+  </si>
+  <si>
+    <t>3fp</t>
+  </si>
+  <si>
+    <t>3mp</t>
+  </si>
+  <si>
+    <t>סוּסְכֶם</t>
+  </si>
+  <si>
+    <t>סוּסְכֶן</t>
+  </si>
+  <si>
+    <t>סוּסָם</t>
+  </si>
+  <si>
+    <t>סוּסָן</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +300,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -411,11 +495,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -474,6 +567,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -492,11 +587,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,12 +913,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="7" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,12 +1714,12 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1640,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1657,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1674,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1691,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1725,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1742,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1759,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1776,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1793,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1810,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1827,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1844,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1861,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1895,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1912,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1929,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1946,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1963,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1980,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1997,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2014,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -2031,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -2048,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -2065,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2082,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2099,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -2116,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2133,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -2150,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -2167,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -2184,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -2215,27 +2311,27 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2256,7 +2352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2297,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2317,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2357,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2377,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2417,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2437,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2497,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2557,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2597,20 +2693,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -2631,7 +2727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -2651,7 +2747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2671,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2691,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2711,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2751,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2771,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2791,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2811,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2831,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2851,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2871,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2891,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -2911,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2931,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2951,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -2991,7 +3087,7 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
@@ -2999,19 +3095,19 @@
     <col min="5" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
@@ -3029,7 +3125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -3047,7 +3143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3064,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3081,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -3098,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -3115,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -3132,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -3149,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -3166,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -3183,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3200,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -3217,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -3234,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -3251,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -3268,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -3285,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -3302,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -3319,19 +3415,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-    </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>14</v>
       </c>
@@ -3349,7 +3445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -3366,7 +3462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -3383,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -3400,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -3417,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -3434,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -3451,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3468,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -3485,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -3502,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -3519,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -3536,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -3553,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -3570,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -3587,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3604,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -3621,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -3638,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -3659,7 +3755,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
@@ -3667,18 +3763,18 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
@@ -3693,7 +3789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
@@ -3708,7 +3804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3722,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3736,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -3750,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -3764,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -3778,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -3792,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -3806,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -3820,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3834,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -3848,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -3862,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -3876,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -3890,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -3904,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -3918,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -3932,18 +4028,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+    <row r="20" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="47"/>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E20" s="49"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
         <v>13</v>
       </c>
@@ -3958,7 +4054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="17" t="s">
         <v>34</v>
       </c>
@@ -3973,7 +4069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -3987,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -4001,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -4015,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -4029,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -4043,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4057,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -4071,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -4085,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -4099,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -4113,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -4127,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -4141,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -4155,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -4169,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -4183,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -4197,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -4218,12 +4314,12 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4246,7 +4342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="35" t="s">
         <v>27</v>
       </c>
@@ -4269,7 +4365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37"/>
       <c r="B3" s="32"/>
       <c r="C3" s="38"/>
@@ -4278,7 +4374,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37"/>
       <c r="B4" s="32"/>
       <c r="C4" s="38"/>
@@ -4287,7 +4383,7 @@
       <c r="F4" s="32"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37"/>
       <c r="B5" s="32"/>
       <c r="C5" s="38"/>
@@ -4296,7 +4392,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37"/>
       <c r="B6" s="32"/>
       <c r="C6" s="38"/>
@@ -4305,7 +4401,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37"/>
       <c r="B7" s="32"/>
       <c r="C7" s="38"/>
@@ -4314,7 +4410,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
       <c r="B8" s="32"/>
       <c r="C8" s="38"/>
@@ -4323,7 +4419,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37"/>
       <c r="B9" s="32"/>
       <c r="C9" s="38"/>
@@ -4332,7 +4428,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37"/>
       <c r="B10" s="32"/>
       <c r="C10" s="38"/>
@@ -4341,7 +4437,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="37"/>
       <c r="B11" s="32"/>
       <c r="C11" s="38"/>
@@ -4350,7 +4446,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37"/>
       <c r="B12" s="32"/>
       <c r="C12" s="38"/>
@@ -4359,7 +4455,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37"/>
       <c r="B13" s="32"/>
       <c r="C13" s="38"/>
@@ -4368,7 +4464,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
       <c r="B14" s="32"/>
       <c r="C14" s="38"/>
@@ -4377,7 +4473,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37"/>
       <c r="B15" s="32"/>
       <c r="C15" s="38"/>
@@ -4386,7 +4482,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37"/>
       <c r="B16" s="32"/>
       <c r="C16" s="38"/>
@@ -4395,7 +4491,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="37"/>
       <c r="B17" s="32"/>
       <c r="C17" s="38"/>
@@ -4404,7 +4500,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="37"/>
       <c r="B18" s="32"/>
       <c r="C18" s="38"/>
@@ -4413,7 +4509,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39"/>
       <c r="B19" s="34"/>
       <c r="C19" s="40"/>
@@ -4422,7 +4518,7 @@
       <c r="F19" s="34"/>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>20</v>
       </c>
@@ -4445,7 +4541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="35" t="s">
         <v>27</v>
       </c>
@@ -4468,7 +4564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37"/>
       <c r="B22" s="32"/>
       <c r="C22" s="38"/>
@@ -4477,7 +4573,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="37"/>
       <c r="B23" s="32"/>
       <c r="C23" s="38"/>
@@ -4486,7 +4582,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="37"/>
       <c r="B24" s="32"/>
       <c r="C24" s="38"/>
@@ -4495,7 +4591,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="37"/>
       <c r="B25" s="32"/>
       <c r="C25" s="38"/>
@@ -4504,7 +4600,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="37"/>
       <c r="B26" s="32"/>
       <c r="C26" s="38"/>
@@ -4513,7 +4609,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="37"/>
       <c r="B27" s="32"/>
       <c r="C27" s="38"/>
@@ -4522,7 +4618,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37"/>
       <c r="B28" s="32"/>
       <c r="C28" s="38"/>
@@ -4531,7 +4627,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37"/>
       <c r="B29" s="32"/>
       <c r="C29" s="38"/>
@@ -4540,7 +4636,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="37"/>
       <c r="B30" s="32"/>
       <c r="C30" s="38"/>
@@ -4549,7 +4645,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="37"/>
       <c r="B31" s="32"/>
       <c r="C31" s="38"/>
@@ -4558,7 +4654,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="37"/>
       <c r="B32" s="32"/>
       <c r="C32" s="38"/>
@@ -4567,7 +4663,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="37"/>
       <c r="B33" s="32"/>
       <c r="C33" s="38"/>
@@ -4576,7 +4672,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="37"/>
       <c r="B34" s="32"/>
       <c r="C34" s="38"/>
@@ -4585,7 +4681,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="37"/>
       <c r="B35" s="32"/>
       <c r="C35" s="38"/>
@@ -4594,7 +4690,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="37"/>
       <c r="B36" s="32"/>
       <c r="C36" s="38"/>
@@ -4603,7 +4699,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="37"/>
       <c r="B37" s="32"/>
       <c r="C37" s="38"/>
@@ -4612,10 +4708,10 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4626,64 +4722,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9187CC4-7C5D-724F-A0F9-D4348E82F7CE}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="10" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -4695,7 +4791,7 @@
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -4707,7 +4803,7 @@
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -4719,7 +4815,7 @@
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -4731,7 +4827,7 @@
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -4743,7 +4839,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -4755,7 +4851,7 @@
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -4767,7 +4863,7 @@
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -4779,7 +4875,7 @@
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -4791,7 +4887,7 @@
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -4803,7 +4899,7 @@
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -4815,7 +4911,7 @@
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -4827,7 +4923,7 @@
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -4839,7 +4935,7 @@
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -4851,7 +4947,7 @@
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4863,7 +4959,7 @@
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -4875,7 +4971,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -4887,7 +4983,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -4899,7 +4995,7 @@
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -4911,7 +5007,7 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -4923,7 +5019,7 @@
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -4935,7 +5031,7 @@
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4947,7 +5043,7 @@
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -4959,7 +5055,7 @@
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -4971,7 +5067,7 @@
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -4983,7 +5079,7 @@
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -4995,7 +5091,7 @@
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
     </row>
-    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -5007,7 +5103,7 @@
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -5019,55 +5115,55 @@
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="50"/>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-    </row>
-    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+    </row>
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="48" t="s">
+      <c r="G32" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J32" s="48" t="s">
+      <c r="J32" s="42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -5079,7 +5175,7 @@
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
     </row>
-    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -5091,7 +5187,7 @@
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -5103,7 +5199,7 @@
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -5115,7 +5211,7 @@
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -5127,7 +5223,7 @@
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -5139,7 +5235,7 @@
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -5151,7 +5247,7 @@
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
@@ -5163,7 +5259,7 @@
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -5175,7 +5271,7 @@
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
     </row>
-    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
@@ -5187,7 +5283,7 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
     </row>
-    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
@@ -5199,7 +5295,7 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -5211,7 +5307,7 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
     </row>
-    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -5223,7 +5319,7 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
     </row>
-    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
@@ -5235,7 +5331,7 @@
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
     </row>
-    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -5247,7 +5343,7 @@
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
@@ -5259,7 +5355,7 @@
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
     </row>
-    <row r="49" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -5271,7 +5367,7 @@
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
     </row>
-    <row r="50" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -5283,7 +5379,7 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
     </row>
-    <row r="51" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
@@ -5295,7 +5391,7 @@
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
     </row>
-    <row r="52" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
@@ -5307,7 +5403,7 @@
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
     </row>
-    <row r="53" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="32"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
@@ -5319,7 +5415,7 @@
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
     </row>
-    <row r="54" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
@@ -5331,7 +5427,7 @@
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
     </row>
-    <row r="55" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -5343,7 +5439,7 @@
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
     </row>
-    <row r="56" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
@@ -5355,7 +5451,7 @@
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="32"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
@@ -5367,7 +5463,7 @@
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
     </row>
-    <row r="58" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
@@ -5379,7 +5475,7 @@
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
     </row>
-    <row r="59" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="32"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
@@ -5391,7 +5487,7 @@
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
     </row>
-    <row r="60" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -5403,12 +5499,12 @@
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
     </row>
-    <row r="61" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F1:J1"/>
@@ -5419,4 +5515,1207 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200FC52B-DE55-42A9-8472-ED6B8297B8BA}">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A19" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A21" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="40" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E2EDE1-AFCB-4EC1-9652-AA9A38462323}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A19" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A21" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A99F6E-0B7D-44D5-AC83-5C73FCE7B0A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33BC1C5-21CC-4016-B4FD-738EED9CB185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-21710" windowWidth="38620" windowHeight="21820" activeTab="8" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="67">
   <si>
     <t>שׁמר</t>
   </si>
@@ -569,6 +569,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -590,9 +593,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2319,17 +2319,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
@@ -2694,17 +2694,17 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
@@ -3096,16 +3096,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
@@ -3416,16 +3416,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
@@ -3764,15 +3764,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
@@ -4029,15 +4029,15 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="49"/>
+      <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
@@ -4732,20 +4732,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="45" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
@@ -5116,20 +5116,20 @@
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="45" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="42" t="s">
@@ -5521,8 +5521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200FC52B-DE55-42A9-8472-ED6B8297B8BA}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
@@ -5531,45 +5531,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5813,45 +5813,45 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.7"/>
     <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6093,23 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
     <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
     <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
     <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -6125,7 +6109,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E36" sqref="A36:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
@@ -6134,45 +6118,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="46" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6416,45 +6400,45 @@
     </row>
     <row r="18" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.7"/>
     <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="46" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6696,25 +6680,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
     <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33BC1C5-21CC-4016-B4FD-738EED9CB185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D8B2B-09DD-F149-B4FD-A8602830BB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-21710" windowWidth="38620" windowHeight="21820" activeTab="8" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="780" yWindow="520" windowWidth="38400" windowHeight="21140" activeTab="7" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -592,6 +592,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,12 +916,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="7" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1714,12 +1717,12 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1821,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -2161,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -2311,14 +2314,14 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
@@ -2331,7 +2334,7 @@
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>3</v>
       </c>
@@ -2706,7 +2709,7 @@
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
     </row>
-    <row r="21" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2907,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2987,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3007,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -3027,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -3087,7 +3090,7 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
@@ -3095,7 +3098,7 @@
     <col min="5" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>4</v>
       </c>
@@ -3107,7 +3110,7 @@
       <c r="E1" s="52"/>
       <c r="F1" s="52"/>
     </row>
-    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3177,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -3313,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -3347,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>4</v>
       </c>
@@ -3427,7 +3430,7 @@
       <c r="E20" s="52"/>
       <c r="F20" s="52"/>
     </row>
-    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>14</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -3547,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3564,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -3632,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -3649,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -3666,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="39" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -3755,7 +3758,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
@@ -3763,7 +3766,7 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>4</v>
       </c>
@@ -3774,7 +3777,7 @@
       </c>
       <c r="E1" s="52"/>
     </row>
-    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3832,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -3860,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -3874,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -3888,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -3902,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -3958,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>4</v>
       </c>
@@ -4039,7 +4042,7 @@
       </c>
       <c r="E20" s="52"/>
     </row>
-    <row r="21" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>13</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>34</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -4083,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -4097,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -4111,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4153,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -4314,12 +4317,12 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4342,7 +4345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>27</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37"/>
       <c r="B3" s="32"/>
       <c r="C3" s="38"/>
@@ -4374,7 +4377,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="32"/>
       <c r="C4" s="38"/>
@@ -4383,7 +4386,7 @@
       <c r="F4" s="32"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
       <c r="B5" s="32"/>
       <c r="C5" s="38"/>
@@ -4392,7 +4395,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="32"/>
       <c r="C6" s="38"/>
@@ -4401,7 +4404,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
       <c r="B7" s="32"/>
       <c r="C7" s="38"/>
@@ -4410,7 +4413,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37"/>
       <c r="B8" s="32"/>
       <c r="C8" s="38"/>
@@ -4419,7 +4422,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
       <c r="B9" s="32"/>
       <c r="C9" s="38"/>
@@ -4428,7 +4431,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
       <c r="B10" s="32"/>
       <c r="C10" s="38"/>
@@ -4437,7 +4440,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
       <c r="B11" s="32"/>
       <c r="C11" s="38"/>
@@ -4446,7 +4449,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
       <c r="B12" s="32"/>
       <c r="C12" s="38"/>
@@ -4455,7 +4458,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="32"/>
       <c r="C13" s="38"/>
@@ -4464,7 +4467,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
       <c r="B14" s="32"/>
       <c r="C14" s="38"/>
@@ -4473,7 +4476,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="32"/>
       <c r="C15" s="38"/>
@@ -4482,7 +4485,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="32"/>
       <c r="C16" s="38"/>
@@ -4491,7 +4494,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="32"/>
       <c r="C17" s="38"/>
@@ -4500,7 +4503,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="32"/>
       <c r="C18" s="38"/>
@@ -4509,7 +4512,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="34"/>
       <c r="C19" s="40"/>
@@ -4518,7 +4521,7 @@
       <c r="F19" s="34"/>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>20</v>
       </c>
@@ -4541,7 +4544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
         <v>27</v>
       </c>
@@ -4564,7 +4567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="32"/>
       <c r="C22" s="38"/>
@@ -4573,7 +4576,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="32"/>
       <c r="C23" s="38"/>
@@ -4582,7 +4585,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="32"/>
       <c r="C24" s="38"/>
@@ -4591,7 +4594,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="32"/>
       <c r="C25" s="38"/>
@@ -4600,7 +4603,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="32"/>
       <c r="C26" s="38"/>
@@ -4609,7 +4612,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="32"/>
       <c r="C27" s="38"/>
@@ -4618,7 +4621,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="32"/>
       <c r="C28" s="38"/>
@@ -4627,7 +4630,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="32"/>
       <c r="C29" s="38"/>
@@ -4636,7 +4639,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
       <c r="B30" s="32"/>
       <c r="C30" s="38"/>
@@ -4645,7 +4648,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="32"/>
       <c r="C31" s="38"/>
@@ -4654,7 +4657,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
       <c r="B32" s="32"/>
       <c r="C32" s="38"/>
@@ -4663,7 +4666,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37"/>
       <c r="B33" s="32"/>
       <c r="C33" s="38"/>
@@ -4672,7 +4675,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="32"/>
       <c r="C34" s="38"/>
@@ -4681,7 +4684,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37"/>
       <c r="B35" s="32"/>
       <c r="C35" s="38"/>
@@ -4690,7 +4693,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="37"/>
       <c r="B36" s="32"/>
       <c r="C36" s="38"/>
@@ -4699,7 +4702,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="32"/>
       <c r="C37" s="38"/>
@@ -4708,10 +4711,10 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4726,12 +4729,12 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>43</v>
       </c>
@@ -4747,7 +4750,7 @@
       <c r="I1" s="49"/>
       <c r="J1" s="49"/>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>38</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -4791,7 +4794,7 @@
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -4803,7 +4806,7 @@
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -4815,7 +4818,7 @@
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -4827,7 +4830,7 @@
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -4839,7 +4842,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -4851,7 +4854,7 @@
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -4863,7 +4866,7 @@
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -4875,7 +4878,7 @@
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -4887,7 +4890,7 @@
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -4899,7 +4902,7 @@
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -4911,7 +4914,7 @@
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -4923,7 +4926,7 @@
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -4935,7 +4938,7 @@
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -4947,7 +4950,7 @@
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4959,7 +4962,7 @@
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -4971,7 +4974,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -4983,7 +4986,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -4995,7 +4998,7 @@
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -5007,7 +5010,7 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -5019,7 +5022,7 @@
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -5031,7 +5034,7 @@
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -5043,7 +5046,7 @@
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -5055,7 +5058,7 @@
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -5067,7 +5070,7 @@
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -5079,7 +5082,7 @@
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -5091,7 +5094,7 @@
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
     </row>
-    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -5103,7 +5106,7 @@
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -5115,7 +5118,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
         <v>43</v>
       </c>
@@ -5131,7 +5134,7 @@
       <c r="I31" s="49"/>
       <c r="J31" s="49"/>
     </row>
-    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>38</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -5175,7 +5178,7 @@
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
     </row>
-    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -5187,7 +5190,7 @@
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -5199,7 +5202,7 @@
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -5211,7 +5214,7 @@
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -5223,7 +5226,7 @@
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -5235,7 +5238,7 @@
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -5247,7 +5250,7 @@
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
@@ -5259,7 +5262,7 @@
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -5271,7 +5274,7 @@
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
     </row>
-    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
@@ -5283,7 +5286,7 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
     </row>
-    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
@@ -5295,7 +5298,7 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -5307,7 +5310,7 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
     </row>
-    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -5319,7 +5322,7 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
     </row>
-    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
@@ -5331,7 +5334,7 @@
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
     </row>
-    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -5343,7 +5346,7 @@
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
@@ -5355,7 +5358,7 @@
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
     </row>
-    <row r="49" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -5367,7 +5370,7 @@
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
     </row>
-    <row r="50" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -5379,7 +5382,7 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
     </row>
-    <row r="51" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
@@ -5391,7 +5394,7 @@
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
     </row>
-    <row r="52" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
@@ -5403,7 +5406,7 @@
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
     </row>
-    <row r="53" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="32"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
@@ -5415,7 +5418,7 @@
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
     </row>
-    <row r="54" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
@@ -5427,7 +5430,7 @@
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
     </row>
-    <row r="55" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -5439,7 +5442,7 @@
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
     </row>
-    <row r="56" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
@@ -5451,7 +5454,7 @@
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="32"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
@@ -5463,7 +5466,7 @@
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
     </row>
-    <row r="58" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
@@ -5475,7 +5478,7 @@
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
     </row>
-    <row r="59" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="32"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
@@ -5487,7 +5490,7 @@
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
     </row>
-    <row r="60" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -5499,12 +5502,12 @@
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
     </row>
-    <row r="61" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F1:J1"/>
@@ -5519,18 +5522,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200FC52B-DE55-42A9-8472-ED6B8297B8BA}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
@@ -5539,24 +5542,24 @@
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
-    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
         <v>51</v>
       </c>
@@ -5573,7 +5576,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -5607,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -5641,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -5675,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -5709,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -5743,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -5760,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -5777,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -5811,51 +5814,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="44" t="s">
+    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="44" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B19" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C19" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D19" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E19" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="46" t="s">
+    <row r="20" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B20" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C20" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D20" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E20" s="46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -5872,7 +5891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -5889,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -5906,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -5923,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -5940,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -5957,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -5974,7 +5993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -5991,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -6008,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -6025,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -6042,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -6059,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -6076,48 +6095,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="40" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E2EDE1-AFCB-4EC1-9652-AA9A38462323}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="A36:E36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>45</v>
       </c>
@@ -6126,24 +6131,24 @@
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
-    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="54" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
         <v>65</v>
       </c>
@@ -6160,7 +6165,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -6177,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -6194,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -6211,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -6228,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -6245,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -6262,7 +6267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -6279,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -6296,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -6313,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -6330,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -6347,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -6364,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -6381,7 +6386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -6398,51 +6403,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="44" t="s">
+    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="44" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B19" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C19" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D19" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E19" s="54" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="46" t="s">
+    <row r="20" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B20" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C20" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D20" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E20" s="46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -6459,7 +6480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -6476,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -6493,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -6510,7 +6531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -6527,7 +6548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -6544,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -6561,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -6578,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -6595,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -6612,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -6629,7 +6650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -6646,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -6663,28 +6684,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D8B2B-09DD-F149-B4FD-A8602830BB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA81D19-53B7-1A49-92D8-6DEA574B787E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="520" windowWidth="38400" windowHeight="21140" activeTab="7" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="37640" windowHeight="21140" activeTab="7" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,7 @@
     <sheet name="Contruct Forms" sheetId="9" r:id="rId5"/>
     <sheet name="That, this" sheetId="7" r:id="rId6"/>
     <sheet name="Vowels" sheetId="10" r:id="rId7"/>
-    <sheet name="Pronominal Singular" sheetId="14" r:id="rId8"/>
-    <sheet name="Pronominal Plural" sheetId="13" r:id="rId9"/>
+    <sheet name="Pronominal" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="67">
   <si>
     <t>שׁמר</t>
   </si>
@@ -498,7 +497,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -571,7 +572,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -593,9 +596,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3754,8 +3755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF5A6BC-C11A-0E45-9DEE-DEAF7BFB8F64}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -5524,8 +5525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200FC52B-DE55-42A9-8472-ED6B8297B8BA}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -5543,37 +5544,37 @@
       <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>55</v>
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
@@ -5797,26 +5798,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1</v>
+    <row r="17" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="44" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -5824,37 +5825,37 @@
       <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>55</v>
+      <c r="A19" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
@@ -6078,21 +6079,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>1</v>
+    <row r="34" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6107,590 +6108,4 @@
     <brk id="17" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E2EDE1-AFCB-4EC1-9652-AA9A38462323}">
-  <dimension ref="A1:E36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="17" max="16383" man="1"/>
-  </rowBreaks>
-</worksheet>
 </file>
--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA81D19-53B7-1A49-92D8-6DEA574B787E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3876DA47-C835-4E4C-9A42-C84A85435EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="37640" windowHeight="21140" activeTab="7" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="37640" windowHeight="21140" activeTab="8" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="That, this" sheetId="7" r:id="rId6"/>
     <sheet name="Vowels" sheetId="10" r:id="rId7"/>
     <sheet name="Pronominal" sheetId="14" r:id="rId8"/>
+    <sheet name="Numbers" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="107">
   <si>
     <t>שׁמר</t>
   </si>
@@ -241,6 +242,126 @@
   </si>
   <si>
     <t>סוּסָן</t>
+  </si>
+  <si>
+    <t>רִאשׁוֹן</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>Seven</t>
+  </si>
+  <si>
+    <t>Eight</t>
+  </si>
+  <si>
+    <t>Nine</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>Twenty</t>
+  </si>
+  <si>
+    <t>Hundred</t>
+  </si>
+  <si>
+    <t>Thousand</t>
+  </si>
+  <si>
+    <t>Ten thousand</t>
+  </si>
+  <si>
+    <t>שֵׁנִי</t>
+  </si>
+  <si>
+    <t>אֶחָד</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>שְׁנַ֫יִם</t>
+  </si>
+  <si>
+    <t>שְׁלֹושָׁה</t>
+  </si>
+  <si>
+    <t>אַרְבָּעָה</t>
+  </si>
+  <si>
+    <t>חֲמִשָּׁה</t>
+  </si>
+  <si>
+    <t>שִׁשָּׁה</t>
+  </si>
+  <si>
+    <t>שִׁבְעָה</t>
+  </si>
+  <si>
+    <t>שְׁמֹנָה</t>
+  </si>
+  <si>
+    <t>תִּשְׁעָה</t>
+  </si>
+  <si>
+    <t>עֲשָׂרָה</t>
+  </si>
+  <si>
+    <t>עֶשְׂרִים</t>
+  </si>
+  <si>
+    <t>מֵאָה</t>
+  </si>
+  <si>
+    <t>אֶ֫לֶף</t>
+  </si>
+  <si>
+    <t>רְבָבָה / רִבּוֹא</t>
+  </si>
+  <si>
+    <t>שְׁלִישִׁי</t>
+  </si>
+  <si>
+    <t>רְבִיעִי</t>
+  </si>
+  <si>
+    <t>חֲמִישִׁי</t>
+  </si>
+  <si>
+    <t>שִׁשִּׁי</t>
+  </si>
+  <si>
+    <t>שְׁבִיעִי</t>
+  </si>
+  <si>
+    <t>שְׁמִינִי</t>
+  </si>
+  <si>
+    <t>תְּשִׁיעִי</t>
+  </si>
+  <si>
+    <t>עֲשִׂירִי</t>
   </si>
 </sst>
 </file>
@@ -509,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -575,6 +696,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -596,7 +718,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2323,17 +2446,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2698,17 +2821,17 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -3100,16 +3223,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -3420,16 +3543,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -3768,15 +3891,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -4033,15 +4156,15 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="52"/>
+      <c r="E20" s="53"/>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -4736,20 +4859,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="48" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -5120,20 +5243,20 @@
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="48" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
@@ -5525,8 +5648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200FC52B-DE55-42A9-8472-ED6B8297B8BA}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -5799,19 +5922,19 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="47" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6080,19 +6203,19 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="47" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6108,4 +6231,339 @@
     <brk id="17" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4529F1D7-7DB7-604A-9ACC-50003AD2A9C1}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="13" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13" style="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="55"/>
+    </row>
+    <row r="2" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="56"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
 </file>
--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3876DA47-C835-4E4C-9A42-C84A85435EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B9735D-91FB-104E-A19D-9686F4AB9248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="37640" windowHeight="21140" activeTab="8" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
@@ -445,7 +445,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -626,11 +626,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -697,6 +741,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -718,8 +763,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2446,17 +2505,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2821,17 +2880,17 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -3223,16 +3282,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -3543,16 +3602,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -3891,15 +3950,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="53"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -4156,15 +4215,15 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="53"/>
+      <c r="E20" s="54"/>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -4859,20 +4918,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -5243,20 +5302,20 @@
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="49" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
@@ -6238,328 +6297,426 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="11.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="13" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13" style="55" customWidth="1"/>
+    <col min="7" max="7" width="13" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="42" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="61" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="58" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="58" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="58" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="58" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="58" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="58" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="58" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="58" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="57" t="s">
         <v>95</v>
       </c>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="57" t="s">
         <v>96</v>
       </c>
+      <c r="F13" s="63"/>
     </row>
     <row r="14" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="57" t="s">
         <v>97</v>
       </c>
+      <c r="F14" s="63"/>
     </row>
     <row r="15" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="57" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="42" t="s">
+      <c r="F15" s="63"/>
+    </row>
+    <row r="16" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="65" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="61" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="58" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="58" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="58" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="58" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="58" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="58" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="58" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="58" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="57" t="s">
         <v>95</v>
       </c>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="57" t="s">
         <v>96</v>
       </c>
+      <c r="F28" s="63"/>
     </row>
     <row r="29" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="57" t="s">
         <v>97</v>
       </c>
+      <c r="F29" s="63"/>
     </row>
     <row r="30" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="57" t="s">
         <v>98</v>
       </c>
+      <c r="F30" s="63"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A16:D16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="1" manualBreakCount="1">

--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B9735D-91FB-104E-A19D-9686F4AB9248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BD4A23-EFAE-1742-BAF0-AF334C2054F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="37640" windowHeight="21140" activeTab="8" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="9" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Vowels" sheetId="10" r:id="rId7"/>
     <sheet name="Pronominal" sheetId="14" r:id="rId8"/>
     <sheet name="Numbers" sheetId="15" r:id="rId9"/>
+    <sheet name="Qal" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="120">
   <si>
     <t>שׁמר</t>
   </si>
@@ -362,13 +363,52 @@
   </si>
   <si>
     <t>עֲשִׂירִי</t>
+  </si>
+  <si>
+    <t>Qal Perfect Singular</t>
+  </si>
+  <si>
+    <t>Qal Perfect Plural</t>
+  </si>
+  <si>
+    <t>קטל</t>
+  </si>
+  <si>
+    <t>קָטַל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קָֽטְלָה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">קָטַ֫לְתָּ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">קָטַלְתְּ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">קָטַ֫לְתִּי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">קָֽטְלוּ </t>
+  </si>
+  <si>
+    <t>קְטַלְתֶּם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קְטַלְתֶּן </t>
+  </si>
+  <si>
+    <t xml:space="preserve">קָטַ֫לְנוּ </t>
+  </si>
+  <si>
+    <t>3cp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -436,6 +476,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -445,7 +491,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -670,11 +716,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -742,6 +799,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -763,12 +827,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,7 +836,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1892,6 +1951,549 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29973FD7-6173-1B40-91F3-9C61A2BF5DFD}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8506E0-DCB5-E548-8147-9106134BEDE6}">
   <dimension ref="A1:E34"/>
@@ -2505,17 +3107,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2880,17 +3482,17 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -3282,16 +3884,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -3602,16 +4204,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="52"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -3950,15 +4552,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="54"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -4215,15 +4817,15 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="52"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="61"/>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -4918,20 +5520,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -5302,20 +5904,20 @@
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="50" t="s">
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
@@ -5708,7 +6310,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -6296,7 +6898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4529F1D7-7DB7-604A-9ACC-50003AD2A9C1}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
@@ -6310,29 +6912,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65" t="s">
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="55" t="s">
         <v>85</v>
       </c>
       <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="60" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="54" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6343,10 +6945,10 @@
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="51" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6357,10 +6959,10 @@
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="51" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6371,10 +6973,10 @@
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="51" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6385,10 +6987,10 @@
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="51" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6399,10 +7001,10 @@
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="51" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6413,10 +7015,10 @@
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="51" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6427,10 +7029,10 @@
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="51" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6441,10 +7043,10 @@
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="51" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6455,10 +7057,10 @@
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="51" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6469,10 +7071,10 @@
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="63"/>
     </row>
     <row r="13" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
@@ -6481,10 +7083,10 @@
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="63"/>
+      <c r="F13" s="64"/>
     </row>
     <row r="14" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
@@ -6493,10 +7095,10 @@
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="63"/>
+      <c r="F14" s="64"/>
     </row>
     <row r="15" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
@@ -6505,34 +7107,34 @@
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="63"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="55" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="60" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="54" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6543,10 +7145,10 @@
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="51" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6557,10 +7159,10 @@
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="51" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6571,10 +7173,10 @@
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="51" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6585,10 +7187,10 @@
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="51" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6599,10 +7201,10 @@
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="51" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6613,10 +7215,10 @@
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="51" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6627,10 +7229,10 @@
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="51" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6641,10 +7243,10 @@
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="51" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6655,10 +7257,10 @@
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="51" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6669,10 +7271,10 @@
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="62"/>
+      <c r="F27" s="63"/>
     </row>
     <row r="28" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
@@ -6681,10 +7283,10 @@
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="63"/>
+      <c r="F28" s="64"/>
     </row>
     <row r="29" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37" t="s">
@@ -6693,10 +7295,10 @@
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="63"/>
+      <c r="F29" s="64"/>
     </row>
     <row r="30" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="37" t="s">
@@ -6705,10 +7307,10 @@
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="63"/>
+      <c r="F30" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BD4A23-EFAE-1742-BAF0-AF334C2054F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBF4BAE-87ED-A640-BB34-9EB557A13906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="9" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="32840" windowHeight="20540" activeTab="10" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="Vowels" sheetId="10" r:id="rId7"/>
     <sheet name="Pronominal" sheetId="14" r:id="rId8"/>
     <sheet name="Numbers" sheetId="15" r:id="rId9"/>
-    <sheet name="Qal" sheetId="16" r:id="rId10"/>
+    <sheet name="Qal Perfect" sheetId="16" r:id="rId10"/>
+    <sheet name="Qal Imperfect" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="130">
   <si>
     <t>שׁמר</t>
   </si>
@@ -402,6 +403,36 @@
   </si>
   <si>
     <t>3cp</t>
+  </si>
+  <si>
+    <t>Qal Imperfect Singular</t>
+  </si>
+  <si>
+    <t>Qal Imperfect Plural</t>
+  </si>
+  <si>
+    <t>יִקְטֹל</t>
+  </si>
+  <si>
+    <t>תִּקְטֹל</t>
+  </si>
+  <si>
+    <t>תִּקְטְלִי</t>
+  </si>
+  <si>
+    <t>אֶקְטֹל</t>
+  </si>
+  <si>
+    <t>יִקְטְלוּ</t>
+  </si>
+  <si>
+    <t>תִּקְטֹלְנָה</t>
+  </si>
+  <si>
+    <t>תִּקְטְלוּ</t>
+  </si>
+  <si>
+    <t>נִקְטֹל</t>
   </si>
 </sst>
 </file>
@@ -806,6 +837,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -836,8 +869,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1955,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29973FD7-6173-1B40-91F3-9C61A2BF5DFD}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:E34"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -2229,19 +2260,19 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="57" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2466,18 +2497,607 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="57" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4122085C-B827-3F46-B8E0-AA8F6FEB86D3}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3095,7 +3715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2376BC-DBFD-154D-A23B-AF47B3CE2A9A}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3107,17 +3727,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -3482,17 +4102,17 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -3884,16 +4504,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -4204,16 +4824,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -4552,15 +5172,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="61"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -4817,15 +5437,15 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="61"/>
+      <c r="E20" s="63"/>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -5520,20 +6140,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="57" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -5904,20 +6524,20 @@
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="57" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
@@ -6912,10 +7532,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="55" t="s">
         <v>84</v>
       </c>
@@ -7074,7 +7694,7 @@
       <c r="E12" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="63"/>
+      <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
@@ -7086,7 +7706,7 @@
       <c r="E13" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="64"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
@@ -7098,7 +7718,7 @@
       <c r="E14" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="64"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
@@ -7110,13 +7730,13 @@
       <c r="E15" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="64"/>
+      <c r="F15" s="66"/>
     </row>
     <row r="16" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="55" t="s">
         <v>84</v>
       </c>
@@ -7274,7 +7894,7 @@
       <c r="E27" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="63"/>
+      <c r="F27" s="65"/>
     </row>
     <row r="28" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
@@ -7286,7 +7906,7 @@
       <c r="E28" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="64"/>
+      <c r="F28" s="66"/>
     </row>
     <row r="29" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37" t="s">
@@ -7298,7 +7918,7 @@
       <c r="E29" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="64"/>
+      <c r="F29" s="66"/>
     </row>
     <row r="30" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="37" t="s">
@@ -7310,7 +7930,7 @@
       <c r="E30" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="64"/>
+      <c r="F30" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBF4BAE-87ED-A640-BB34-9EB557A13906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4F795E-1888-A44B-9F78-4371F77CF2F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="32840" windowHeight="20540" activeTab="10" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="32840" windowHeight="20540" activeTab="11" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Numbers" sheetId="15" r:id="rId9"/>
     <sheet name="Qal Perfect" sheetId="16" r:id="rId10"/>
     <sheet name="Qal Imperfect" sheetId="17" r:id="rId11"/>
+    <sheet name="Qal Participles" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="144">
   <si>
     <t>שׁמר</t>
   </si>
@@ -433,6 +434,48 @@
   </si>
   <si>
     <t>נִקְטֹל</t>
+  </si>
+  <si>
+    <t>Qal Passive Participle</t>
+  </si>
+  <si>
+    <t>Qal Active Participle</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>fp</t>
+  </si>
+  <si>
+    <t>קֹטֵל</t>
+  </si>
+  <si>
+    <t>קֹטְלָה</t>
+  </si>
+  <si>
+    <t>קֹטְלִים</t>
+  </si>
+  <si>
+    <t>קֹטְלוֹת</t>
+  </si>
+  <si>
+    <t>קָטוּל</t>
+  </si>
+  <si>
+    <t>קְטוּלָה</t>
+  </si>
+  <si>
+    <t>קְטוּלִים</t>
+  </si>
+  <si>
+    <t>קְטוּלוֹת</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4122085C-B827-3F46-B8E0-AA8F6FEB86D3}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -3105,6 +3148,497 @@
     <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBF04C3-304E-5D43-B04A-3FF0AB83EF66}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="19.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4F795E-1888-A44B-9F78-4371F77CF2F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027521E-8088-EC42-948B-3D1EEEEC16D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="32840" windowHeight="20540" activeTab="11" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="3860" yWindow="860" windowWidth="32840" windowHeight="20540" activeTab="12" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Qal Perfect" sheetId="16" r:id="rId10"/>
     <sheet name="Qal Imperfect" sheetId="17" r:id="rId11"/>
     <sheet name="Qal Participles" sheetId="18" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="152">
   <si>
     <t>שׁמר</t>
   </si>
@@ -476,6 +477,30 @@
   </si>
   <si>
     <t>קְטוּלוֹת</t>
+  </si>
+  <si>
+    <t>Inf. C.</t>
+  </si>
+  <si>
+    <t>Ptc. P.</t>
+  </si>
+  <si>
+    <t>Ptc. A.</t>
+  </si>
+  <si>
+    <t>Impf</t>
+  </si>
+  <si>
+    <t>Pf.</t>
+  </si>
+  <si>
+    <t>Inf. A.</t>
+  </si>
+  <si>
+    <t>קְטֹל</t>
+  </si>
+  <si>
+    <t>קָטוֹל</t>
   </si>
 </sst>
 </file>
@@ -565,7 +590,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -801,11 +826,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -912,6 +1031,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2029,8 +2164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29973FD7-6173-1B40-91F3-9C61A2BF5DFD}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -2572,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4122085C-B827-3F46-B8E0-AA8F6FEB86D3}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -3161,8 +3296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBF04C3-304E-5D43-B04A-3FF0AB83EF66}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -3644,6 +3779,654 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="17" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63C65C7-1D87-E543-A04B-84291704A758}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\git\learning_biblical_hebrew_flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027521E-8088-EC42-948B-3D1EEEEC16D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64C609C-CFDB-4747-B831-BD5B8769F71F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="860" windowWidth="32840" windowHeight="20540" activeTab="12" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="5070" yWindow="-16630" windowWidth="28800" windowHeight="15540" tabRatio="719" activeTab="12" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Qal Perfect" sheetId="16" r:id="rId10"/>
     <sheet name="Qal Imperfect" sheetId="17" r:id="rId11"/>
     <sheet name="Qal Participles" sheetId="18" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId13"/>
+    <sheet name="Simple Paradigm" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="153">
   <si>
     <t>שׁמר</t>
   </si>
@@ -501,6 +501,31 @@
   </si>
   <si>
     <t>קָטוֹל</t>
+  </si>
+  <si>
+    <r>
+      <t>קט</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ל</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -590,7 +615,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -827,104 +852,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="slantDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="slantDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="slantDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1001,6 +945,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1031,22 +979,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1367,12 +1303,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="7" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1740,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1855,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2108,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2131,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2168,12 +2104,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="44" t="s">
         <v>107</v>
       </c>
@@ -2182,7 +2118,7 @@
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
-    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>46</v>
       </c>
@@ -2199,7 +2135,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -2216,7 +2152,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
@@ -2233,7 +2169,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>109</v>
       </c>
@@ -2250,7 +2186,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -2267,7 +2203,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
@@ -2284,7 +2220,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -2301,7 +2237,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -2318,7 +2254,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -2335,7 +2271,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -2352,7 +2288,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -2369,7 +2305,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -2386,7 +2322,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>109</v>
       </c>
@@ -2403,7 +2339,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
@@ -2420,7 +2356,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -2437,7 +2373,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="57" t="s">
         <v>110</v>
       </c>
@@ -2454,7 +2390,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="44" t="s">
         <v>108</v>
       </c>
@@ -2463,7 +2399,7 @@
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
     </row>
-    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>119</v>
       </c>
@@ -2478,7 +2414,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>109</v>
       </c>
@@ -2492,7 +2428,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>109</v>
       </c>
@@ -2506,7 +2442,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>109</v>
       </c>
@@ -2520,7 +2456,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -2534,7 +2470,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -2548,7 +2484,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -2562,7 +2498,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
@@ -2576,7 +2512,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
@@ -2590,7 +2526,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -2604,7 +2540,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -2618,7 +2554,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
@@ -2632,7 +2568,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>109</v>
       </c>
@@ -2646,7 +2582,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
@@ -2660,7 +2596,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>109</v>
       </c>
@@ -2674,7 +2610,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="57" t="s">
         <v>115</v>
       </c>
@@ -2689,11 +2625,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2711,12 +2647,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="44" t="s">
         <v>120</v>
       </c>
@@ -2725,7 +2661,7 @@
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
-    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>46</v>
       </c>
@@ -2742,7 +2678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -2759,7 +2695,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
@@ -2776,7 +2712,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>109</v>
       </c>
@@ -2793,7 +2729,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -2810,7 +2746,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
@@ -2827,7 +2763,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -2844,7 +2780,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -2861,7 +2797,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -2878,7 +2814,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -2895,7 +2831,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -2912,7 +2848,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -2929,7 +2865,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>109</v>
       </c>
@@ -2946,7 +2882,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
@@ -2963,7 +2899,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -2980,7 +2916,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="57" t="s">
         <v>122</v>
       </c>
@@ -2997,7 +2933,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="44" t="s">
         <v>121</v>
       </c>
@@ -3006,7 +2942,7 @@
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
     </row>
-    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>62</v>
       </c>
@@ -3023,7 +2959,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>109</v>
       </c>
@@ -3040,7 +2976,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>109</v>
       </c>
@@ -3057,7 +2993,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>109</v>
       </c>
@@ -3074,7 +3010,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -3091,7 +3027,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -3108,7 +3044,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -3125,7 +3061,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
@@ -3142,7 +3078,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
@@ -3159,7 +3095,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -3176,7 +3112,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -3193,7 +3129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
@@ -3210,7 +3146,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>109</v>
       </c>
@@ -3227,7 +3163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
@@ -3244,7 +3180,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>109</v>
       </c>
@@ -3261,7 +3197,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="57" t="s">
         <v>126</v>
       </c>
@@ -3278,11 +3214,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3300,12 +3236,12 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="4" width="19.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="44" t="s">
         <v>131</v>
       </c>
@@ -3313,7 +3249,7 @@
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
     </row>
-    <row r="2" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>132</v>
       </c>
@@ -3327,7 +3263,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -3341,7 +3277,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
@@ -3355,7 +3291,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>109</v>
       </c>
@@ -3369,7 +3305,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -3383,7 +3319,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
@@ -3397,7 +3333,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -3411,7 +3347,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -3425,7 +3361,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -3439,7 +3375,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -3453,7 +3389,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -3467,7 +3403,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -3481,7 +3417,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>109</v>
       </c>
@@ -3495,7 +3431,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
@@ -3509,7 +3445,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -3523,7 +3459,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="57" t="s">
         <v>136</v>
       </c>
@@ -3537,7 +3473,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="44" t="s">
         <v>130</v>
       </c>
@@ -3545,7 +3481,7 @@
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
     </row>
-    <row r="19" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>132</v>
       </c>
@@ -3559,7 +3495,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>109</v>
       </c>
@@ -3573,7 +3509,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>109</v>
       </c>
@@ -3587,7 +3523,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>109</v>
       </c>
@@ -3601,7 +3537,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -3615,7 +3551,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -3629,7 +3565,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -3643,7 +3579,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
@@ -3657,7 +3593,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
@@ -3671,7 +3607,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -3685,7 +3621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -3699,7 +3635,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
@@ -3713,7 +3649,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>109</v>
       </c>
@@ -3727,7 +3663,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
@@ -3741,7 +3677,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>109</v>
       </c>
@@ -3755,7 +3691,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="57" t="s">
         <v>140</v>
       </c>
@@ -3769,11 +3705,11 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="36" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="37" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="38" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="39" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3787,644 +3723,644 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63C65C7-1D87-E543-A04B-84291704A758}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" style="3" customWidth="1"/>
+    <col min="2" max="7" width="10.08203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="77" t="s">
+      <c r="B1" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="70" t="s">
         <v>147</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="70" t="s">
         <v>144</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="58" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A4" s="70" t="s">
         <v>149</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="58" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="70" t="s">
         <v>146</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A6" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="74" t="s">
+      <c r="B6" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="73" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
+    <row r="7" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A7" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="77" t="s">
+      <c r="B7" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71" t="s">
+    <row r="8" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="70" t="s">
         <v>147</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71" t="s">
+    <row r="9" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="70" t="s">
         <v>144</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="58" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71" t="s">
+    <row r="10" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A10" s="70" t="s">
         <v>149</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="58" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A11" s="70" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="81" t="s">
+    <row r="12" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="74" t="s">
+      <c r="B12" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="58" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75" t="s">
+    <row r="13" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A13" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="77" t="s">
+      <c r="B13" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A14" s="70" t="s">
         <v>147</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="70" t="s">
         <v>144</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="58" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A16" s="70" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="58" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A17" s="70" t="s">
         <v>146</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A18" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="74" t="s">
+      <c r="B18" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="73" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="78" t="s">
+    <row r="19" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A19" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="80" t="s">
+      <c r="B19" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="71" t="s">
+    <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A20" s="70" t="s">
         <v>147</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G20" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="71" t="s">
+    <row r="21" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A21" s="70" t="s">
         <v>144</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="58" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="71" t="s">
+    <row r="22" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A22" s="70" t="s">
         <v>149</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G22" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="58" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="71" t="s">
+    <row r="23" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A23" s="70" t="s">
         <v>146</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="70" t="s">
         <v>145</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G24" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="58" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="12" max="16383" man="1"/>
   </rowBreaks>
@@ -4439,12 +4375,12 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4461,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4478,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4495,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4512,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4529,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -4546,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4563,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -4580,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -4597,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -4614,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -4631,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4648,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -4665,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -4682,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -4699,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -4716,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -4733,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -4750,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -4767,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4784,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -4801,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -4818,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -4835,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -4852,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -4869,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -4886,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -4903,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4920,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -4937,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -4954,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -4971,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -4988,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -5005,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -5036,27 +4972,27 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -5077,7 +5013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
@@ -5098,7 +5034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5118,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5138,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -5158,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -5178,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5198,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -5218,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5238,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5258,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -5278,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -5298,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -5318,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -5338,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -5358,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -5378,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -5398,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -5418,20 +5354,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-    </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -5452,7 +5388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -5472,7 +5408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -5492,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -5512,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -5532,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -5552,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -5572,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -5592,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -5612,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -5632,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -5652,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -5672,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -5692,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5712,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -5732,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -5752,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -5772,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -5812,7 +5748,7 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
@@ -5820,19 +5756,19 @@
     <col min="5" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-    </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
@@ -5850,7 +5786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -5868,7 +5804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5885,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -5902,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -5919,7 +5855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -5936,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -5953,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -5970,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -5987,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -6004,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -6021,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -6038,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -6055,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -6072,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -6089,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -6106,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -6123,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -6140,19 +6076,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="61"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-    </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>14</v>
       </c>
@@ -6170,7 +6106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -6187,7 +6123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -6204,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -6221,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -6238,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -6255,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -6272,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -6289,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -6306,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -6323,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -6340,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -6357,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -6374,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -6391,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -6408,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -6425,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -6442,7 +6378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -6459,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -6480,7 +6416,7 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
@@ -6488,18 +6424,18 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="63"/>
-    </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
@@ -6514,7 +6450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
@@ -6529,7 +6465,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -6543,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -6557,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -6571,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -6585,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -6599,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -6613,7 +6549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -6627,7 +6563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -6641,7 +6577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -6655,7 +6591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -6669,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -6683,7 +6619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -6697,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -6711,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -6725,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -6739,7 +6675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -6753,18 +6689,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+    <row r="20" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="61"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="63"/>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E20" s="65"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
         <v>13</v>
       </c>
@@ -6779,7 +6715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="17" t="s">
         <v>34</v>
       </c>
@@ -6794,7 +6730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -6808,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -6822,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -6836,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -6850,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -6864,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -6878,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -6892,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -6906,7 +6842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -6920,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -6934,7 +6870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -6948,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -6962,7 +6898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -6976,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -6990,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -7004,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -7018,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -7039,12 +6975,12 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -7067,7 +7003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="35" t="s">
         <v>27</v>
       </c>
@@ -7090,7 +7026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37"/>
       <c r="B3" s="32"/>
       <c r="C3" s="38"/>
@@ -7099,7 +7035,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37"/>
       <c r="B4" s="32"/>
       <c r="C4" s="38"/>
@@ -7108,7 +7044,7 @@
       <c r="F4" s="32"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37"/>
       <c r="B5" s="32"/>
       <c r="C5" s="38"/>
@@ -7117,7 +7053,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37"/>
       <c r="B6" s="32"/>
       <c r="C6" s="38"/>
@@ -7126,7 +7062,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37"/>
       <c r="B7" s="32"/>
       <c r="C7" s="38"/>
@@ -7135,7 +7071,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
       <c r="B8" s="32"/>
       <c r="C8" s="38"/>
@@ -7144,7 +7080,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37"/>
       <c r="B9" s="32"/>
       <c r="C9" s="38"/>
@@ -7153,7 +7089,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37"/>
       <c r="B10" s="32"/>
       <c r="C10" s="38"/>
@@ -7162,7 +7098,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="37"/>
       <c r="B11" s="32"/>
       <c r="C11" s="38"/>
@@ -7171,7 +7107,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37"/>
       <c r="B12" s="32"/>
       <c r="C12" s="38"/>
@@ -7180,7 +7116,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37"/>
       <c r="B13" s="32"/>
       <c r="C13" s="38"/>
@@ -7189,7 +7125,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
       <c r="B14" s="32"/>
       <c r="C14" s="38"/>
@@ -7198,7 +7134,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37"/>
       <c r="B15" s="32"/>
       <c r="C15" s="38"/>
@@ -7207,7 +7143,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37"/>
       <c r="B16" s="32"/>
       <c r="C16" s="38"/>
@@ -7216,7 +7152,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="37"/>
       <c r="B17" s="32"/>
       <c r="C17" s="38"/>
@@ -7225,7 +7161,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="37"/>
       <c r="B18" s="32"/>
       <c r="C18" s="38"/>
@@ -7234,7 +7170,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39"/>
       <c r="B19" s="34"/>
       <c r="C19" s="40"/>
@@ -7243,7 +7179,7 @@
       <c r="F19" s="34"/>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>20</v>
       </c>
@@ -7266,7 +7202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="35" t="s">
         <v>27</v>
       </c>
@@ -7289,7 +7225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37"/>
       <c r="B22" s="32"/>
       <c r="C22" s="38"/>
@@ -7298,7 +7234,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="37"/>
       <c r="B23" s="32"/>
       <c r="C23" s="38"/>
@@ -7307,7 +7243,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="37"/>
       <c r="B24" s="32"/>
       <c r="C24" s="38"/>
@@ -7316,7 +7252,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="37"/>
       <c r="B25" s="32"/>
       <c r="C25" s="38"/>
@@ -7325,7 +7261,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="37"/>
       <c r="B26" s="32"/>
       <c r="C26" s="38"/>
@@ -7334,7 +7270,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="37"/>
       <c r="B27" s="32"/>
       <c r="C27" s="38"/>
@@ -7343,7 +7279,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37"/>
       <c r="B28" s="32"/>
       <c r="C28" s="38"/>
@@ -7352,7 +7288,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37"/>
       <c r="B29" s="32"/>
       <c r="C29" s="38"/>
@@ -7361,7 +7297,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="37"/>
       <c r="B30" s="32"/>
       <c r="C30" s="38"/>
@@ -7370,7 +7306,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="37"/>
       <c r="B31" s="32"/>
       <c r="C31" s="38"/>
@@ -7379,7 +7315,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="37"/>
       <c r="B32" s="32"/>
       <c r="C32" s="38"/>
@@ -7388,7 +7324,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="37"/>
       <c r="B33" s="32"/>
       <c r="C33" s="38"/>
@@ -7397,7 +7333,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="37"/>
       <c r="B34" s="32"/>
       <c r="C34" s="38"/>
@@ -7406,7 +7342,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="37"/>
       <c r="B35" s="32"/>
       <c r="C35" s="38"/>
@@ -7415,7 +7351,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="37"/>
       <c r="B36" s="32"/>
       <c r="C36" s="38"/>
@@ -7424,7 +7360,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="37"/>
       <c r="B37" s="32"/>
       <c r="C37" s="38"/>
@@ -7433,10 +7369,10 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7451,28 +7387,28 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="10" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="59" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
         <v>38</v>
       </c>
@@ -7504,7 +7440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -7516,7 +7452,7 @@
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -7528,7 +7464,7 @@
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -7540,7 +7476,7 @@
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -7552,7 +7488,7 @@
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -7564,7 +7500,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -7576,7 +7512,7 @@
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -7588,7 +7524,7 @@
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -7600,7 +7536,7 @@
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -7612,7 +7548,7 @@
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -7624,7 +7560,7 @@
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -7636,7 +7572,7 @@
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -7648,7 +7584,7 @@
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -7660,7 +7596,7 @@
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -7672,7 +7608,7 @@
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -7684,7 +7620,7 @@
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -7696,7 +7632,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -7708,7 +7644,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -7720,7 +7656,7 @@
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -7732,7 +7668,7 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -7744,7 +7680,7 @@
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -7756,7 +7692,7 @@
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -7768,7 +7704,7 @@
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -7780,7 +7716,7 @@
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -7792,7 +7728,7 @@
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -7804,7 +7740,7 @@
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -7816,7 +7752,7 @@
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
     </row>
-    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -7828,7 +7764,7 @@
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -7840,23 +7776,23 @@
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="59" t="s">
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-    </row>
-    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+    </row>
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="42" t="s">
         <v>38</v>
       </c>
@@ -7888,7 +7824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -7900,7 +7836,7 @@
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
     </row>
-    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -7912,7 +7848,7 @@
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -7924,7 +7860,7 @@
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -7936,7 +7872,7 @@
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -7948,7 +7884,7 @@
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -7960,7 +7896,7 @@
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -7972,7 +7908,7 @@
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
@@ -7984,7 +7920,7 @@
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -7996,7 +7932,7 @@
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
     </row>
-    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
@@ -8008,7 +7944,7 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
     </row>
-    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
@@ -8020,7 +7956,7 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -8032,7 +7968,7 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
     </row>
-    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -8044,7 +7980,7 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
     </row>
-    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
@@ -8056,7 +7992,7 @@
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
     </row>
-    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -8068,7 +8004,7 @@
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
@@ -8080,7 +8016,7 @@
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
     </row>
-    <row r="49" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -8092,7 +8028,7 @@
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
     </row>
-    <row r="50" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -8104,7 +8040,7 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
     </row>
-    <row r="51" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
@@ -8116,7 +8052,7 @@
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
     </row>
-    <row r="52" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
@@ -8128,7 +8064,7 @@
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
     </row>
-    <row r="53" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="32"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
@@ -8140,7 +8076,7 @@
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
     </row>
-    <row r="54" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
@@ -8152,7 +8088,7 @@
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
     </row>
-    <row r="55" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -8164,7 +8100,7 @@
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
     </row>
-    <row r="56" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
@@ -8176,7 +8112,7 @@
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="32"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
@@ -8188,7 +8124,7 @@
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
     </row>
-    <row r="58" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
@@ -8200,7 +8136,7 @@
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
     </row>
-    <row r="59" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="32"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
@@ -8212,7 +8148,7 @@
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
     </row>
-    <row r="60" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -8224,12 +8160,12 @@
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
     </row>
-    <row r="61" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F1:J1"/>
@@ -8250,12 +8186,12 @@
       <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
@@ -8264,7 +8200,7 @@
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
-    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>46</v>
       </c>
@@ -8281,7 +8217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8298,7 +8234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -8315,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -8332,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -8349,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -8366,7 +8302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -8383,7 +8319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -8400,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -8417,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -8434,7 +8370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -8451,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -8468,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -8485,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -8502,7 +8438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -8519,7 +8455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A17" s="47" t="s">
         <v>51</v>
       </c>
@@ -8536,7 +8472,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="44" t="s">
         <v>45</v>
       </c>
@@ -8545,7 +8481,7 @@
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
     </row>
-    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>62</v>
       </c>
@@ -8562,7 +8498,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -8579,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -8596,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -8613,7 +8549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -8630,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -8647,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -8664,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -8681,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -8698,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -8715,7 +8651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -8732,7 +8668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -8749,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -8766,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -8783,7 +8719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -8800,7 +8736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A34" s="47" t="s">
         <v>65</v>
       </c>
@@ -8817,11 +8753,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -8839,7 +8775,7 @@
       <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="1"/>
@@ -8848,11 +8784,11 @@
     <col min="7" max="7" width="13" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="55" t="s">
         <v>84</v>
       </c>
@@ -8861,7 +8797,7 @@
       </c>
       <c r="G1" s="48"/>
     </row>
-    <row r="2" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="52" t="s">
         <v>68</v>
       </c>
@@ -8875,7 +8811,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="37" t="s">
         <v>69</v>
       </c>
@@ -8889,7 +8825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="37" t="s">
         <v>70</v>
       </c>
@@ -8903,7 +8839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="37" t="s">
         <v>71</v>
       </c>
@@ -8917,7 +8853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="37" t="s">
         <v>72</v>
       </c>
@@ -8931,7 +8867,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="37" t="s">
         <v>73</v>
       </c>
@@ -8945,7 +8881,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="37" t="s">
         <v>74</v>
       </c>
@@ -8959,7 +8895,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="37" t="s">
         <v>75</v>
       </c>
@@ -8973,7 +8909,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="37" t="s">
         <v>76</v>
       </c>
@@ -8987,7 +8923,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="37" t="s">
         <v>77</v>
       </c>
@@ -9001,7 +8937,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="37" t="s">
         <v>78</v>
       </c>
@@ -9011,9 +8947,9 @@
       <c r="E12" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="65"/>
-    </row>
-    <row r="13" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="67"/>
+    </row>
+    <row r="13" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="37" t="s">
         <v>79</v>
       </c>
@@ -9023,9 +8959,9 @@
       <c r="E13" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="66"/>
-    </row>
-    <row r="14" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="68"/>
+    </row>
+    <row r="14" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="37" t="s">
         <v>80</v>
       </c>
@@ -9035,9 +8971,9 @@
       <c r="E14" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="66"/>
-    </row>
-    <row r="15" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="68"/>
+    </row>
+    <row r="15" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="37" t="s">
         <v>81</v>
       </c>
@@ -9047,13 +8983,13 @@
       <c r="E15" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="66"/>
-    </row>
-    <row r="16" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="55" t="s">
         <v>84</v>
       </c>
@@ -9061,7 +8997,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="52" t="s">
         <v>68</v>
       </c>
@@ -9075,7 +9011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="37" t="s">
         <v>69</v>
       </c>
@@ -9089,7 +9025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="37" t="s">
         <v>70</v>
       </c>
@@ -9103,7 +9039,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="37" t="s">
         <v>71</v>
       </c>
@@ -9117,7 +9053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="37" t="s">
         <v>72</v>
       </c>
@@ -9131,7 +9067,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="37" t="s">
         <v>73</v>
       </c>
@@ -9145,7 +9081,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="37" t="s">
         <v>74</v>
       </c>
@@ -9159,7 +9095,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="37" t="s">
         <v>75</v>
       </c>
@@ -9173,7 +9109,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="37" t="s">
         <v>76</v>
       </c>
@@ -9187,7 +9123,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="37" t="s">
         <v>77</v>
       </c>
@@ -9201,7 +9137,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="37" t="s">
         <v>78</v>
       </c>
@@ -9211,9 +9147,9 @@
       <c r="E27" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="65"/>
-    </row>
-    <row r="28" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="67"/>
+    </row>
+    <row r="28" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="37" t="s">
         <v>79</v>
       </c>
@@ -9223,9 +9159,9 @@
       <c r="E28" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="66"/>
-    </row>
-    <row r="29" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="68"/>
+    </row>
+    <row r="29" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="37" t="s">
         <v>80</v>
       </c>
@@ -9235,9 +9171,9 @@
       <c r="E29" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="66"/>
-    </row>
-    <row r="30" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="68"/>
+    </row>
+    <row r="30" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="37" t="s">
         <v>81</v>
       </c>
@@ -9247,7 +9183,7 @@
       <c r="E30" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="66"/>
+      <c r="F30" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9257,7 +9193,7 @@
     <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="15" max="16383" man="1"/>
   </rowBreaks>

--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027521E-8088-EC42-948B-3D1EEEEC16D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B04C0D-D5C3-E54F-AA33-6DA083A8DC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="860" windowWidth="32840" windowHeight="20540" activeTab="12" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="38400" yWindow="10580" windowWidth="33600" windowHeight="20500" activeTab="13" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,13 @@
     <sheet name="Contruct Forms" sheetId="9" r:id="rId5"/>
     <sheet name="That, this" sheetId="7" r:id="rId6"/>
     <sheet name="Vowels" sheetId="10" r:id="rId7"/>
-    <sheet name="Pronominal" sheetId="14" r:id="rId8"/>
-    <sheet name="Numbers" sheetId="15" r:id="rId9"/>
-    <sheet name="Qal Perfect" sheetId="16" r:id="rId10"/>
-    <sheet name="Qal Imperfect" sheetId="17" r:id="rId11"/>
-    <sheet name="Qal Participles" sheetId="18" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId13"/>
+    <sheet name="Main Forms" sheetId="19" r:id="rId8"/>
+    <sheet name="Pronominal" sheetId="14" r:id="rId9"/>
+    <sheet name="Numbers" sheetId="15" r:id="rId10"/>
+    <sheet name="Qal Perfect" sheetId="16" r:id="rId11"/>
+    <sheet name="Qal Imperfect" sheetId="17" r:id="rId12"/>
+    <sheet name="Qal Participles" sheetId="18" r:id="rId13"/>
+    <sheet name="Piel, Pual, Hithpael" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="164">
   <si>
     <t>שׁמר</t>
   </si>
@@ -501,6 +502,42 @@
   </si>
   <si>
     <t>קָטוֹל</t>
+  </si>
+  <si>
+    <t>Piel</t>
+  </si>
+  <si>
+    <t>Pual</t>
+  </si>
+  <si>
+    <t>Hithpael</t>
+  </si>
+  <si>
+    <t>קַטֵּל</t>
+  </si>
+  <si>
+    <t>מְקַטֵּל</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> קִטֵּל</t>
+  </si>
+  <si>
+    <t>Ptc.</t>
+  </si>
+  <si>
+    <t>קֻטַּל</t>
+  </si>
+  <si>
+    <t>קֻטֹּל</t>
+  </si>
+  <si>
+    <t>מְקֻטָּל</t>
+  </si>
+  <si>
+    <t>הִתְקַטֵּל</t>
+  </si>
+  <si>
+    <t>מִתְקַטֵּל</t>
   </si>
 </sst>
 </file>
@@ -1001,6 +1038,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1031,22 +1084,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2161,10 +2198,443 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4529F1D7-7DB7-604A-9ACC-50003AD2A9C1}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="11.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13" style="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="79"/>
+    </row>
+    <row r="13" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="80"/>
+    </row>
+    <row r="14" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="80"/>
+    </row>
+    <row r="15" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="80"/>
+    </row>
+    <row r="16" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="79"/>
+    </row>
+    <row r="28" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="80"/>
+    </row>
+    <row r="29" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="80"/>
+    </row>
+    <row r="30" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A16:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29973FD7-6173-1B40-91F3-9C61A2BF5DFD}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -2703,7 +3173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4122085C-B827-3F46-B8E0-AA8F6FEB86D3}">
   <dimension ref="A1:E39"/>
   <sheetViews>
@@ -3292,12 +3762,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBF04C3-304E-5D43-B04A-3FF0AB83EF66}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -3783,75 +4253,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63C65C7-1D87-E543-A04B-84291704A758}">
-  <dimension ref="A1:H24"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F552AE25-CC3E-D247-9704-FB16A32357CF}">
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71" t="s">
+      <c r="B2" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="61" t="s">
         <v>144</v>
       </c>
       <c r="B3" s="57" t="s">
@@ -3872,12 +4321,12 @@
       <c r="G3" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71" t="s">
+      <c r="H3" s="58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
         <v>149</v>
       </c>
       <c r="B4" s="57" t="s">
@@ -3898,13 +4347,13 @@
       <c r="G4" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71" t="s">
-        <v>146</v>
+      <c r="H4" s="58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="61" t="s">
+        <v>158</v>
       </c>
       <c r="B5" s="57" t="s">
         <v>109</v>
@@ -3924,65 +4373,44 @@
       <c r="G5" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
+      <c r="H5" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71" t="s">
-        <v>147</v>
+      <c r="B7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="61" t="s">
+        <v>144</v>
       </c>
       <c r="B8" s="57" t="s">
         <v>109</v>
@@ -4002,404 +4430,341 @@
       <c r="G8" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="69" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71" t="s">
+      <c r="H8" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71" t="s">
+      <c r="B13" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75" t="s">
+      <c r="B14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="71" t="s">
+      <c r="B17" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="71" t="s">
+      <c r="B18" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="74" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="78" t="s">
+      <c r="B19" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="69" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="71" t="s">
+      <c r="B22" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="71" t="s">
+      <c r="B23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="70" t="s">
-        <v>145</v>
-      </c>
       <c r="B24" s="57" t="s">
         <v>109</v>
       </c>
@@ -4418,15 +4783,150 @@
       <c r="G24" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="68" t="s">
-        <v>140</v>
+      <c r="H24" s="58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="58" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="86" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="12" max="16383" man="1"/>
+    <brk id="15" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -5044,17 +5544,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -5419,17 +5919,17 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
     </row>
     <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -5821,16 +6321,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="75"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -6141,16 +6641,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="61"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -6489,15 +6989,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="75"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="63"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -6754,15 +7254,15 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="61"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="63"/>
+      <c r="E20" s="77"/>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -7457,20 +7957,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="59" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -7841,20 +8341,20 @@
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="59" t="s">
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
@@ -8243,6 +8743,654 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63C65C7-1D87-E543-A04B-84291704A758}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200FC52B-DE55-42A9-8472-ED6B8297B8BA}">
   <dimension ref="A1:E39"/>
   <sheetViews>
@@ -8829,437 +9977,4 @@
     <brk id="17" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4529F1D7-7DB7-604A-9ACC-50003AD2A9C1}">
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="11.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13" style="48" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="48"/>
-    </row>
-    <row r="2" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="65"/>
-    </row>
-    <row r="13" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="66"/>
-    </row>
-    <row r="14" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="66"/>
-    </row>
-    <row r="15" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="66"/>
-    </row>
-    <row r="16" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="65"/>
-    </row>
-    <row r="28" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="66"/>
-    </row>
-    <row r="29" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="66"/>
-    </row>
-    <row r="30" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="66"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A16:D16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="15" max="16383" man="1"/>
-  </rowBreaks>
-</worksheet>
 </file>
--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmurphey/git/learning_biblical_hebrew_flashcards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B04C0D-D5C3-E54F-AA33-6DA083A8DC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B9AFE7-9ADA-45C8-963C-F7A38C813546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="10580" windowWidth="33600" windowHeight="20500" activeTab="13" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="9820" yWindow="4300" windowWidth="28800" windowHeight="15540" activeTab="7" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="165">
   <si>
     <t>שׁמר</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t>מִתְקַטֵּל</t>
+  </si>
+  <si>
+    <t>קט ל</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -876,15 +879,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -903,17 +897,6 @@
       <right/>
       <top style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="slantDashDot">
-        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -961,7 +944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1045,15 +1028,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1404,12 +1385,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="7" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1777,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1846,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1892,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1938,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1961,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2053,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2205,7 +2186,7 @@
       <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="1"/>
@@ -2214,11 +2195,11 @@
     <col min="7" max="7" width="13" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="55" t="s">
         <v>84</v>
       </c>
@@ -2227,7 +2208,7 @@
       </c>
       <c r="G1" s="48"/>
     </row>
-    <row r="2" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="52" t="s">
         <v>68</v>
       </c>
@@ -2241,7 +2222,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="37" t="s">
         <v>69</v>
       </c>
@@ -2255,7 +2236,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="37" t="s">
         <v>70</v>
       </c>
@@ -2269,7 +2250,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="37" t="s">
         <v>71</v>
       </c>
@@ -2283,7 +2264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="37" t="s">
         <v>72</v>
       </c>
@@ -2297,7 +2278,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="37" t="s">
         <v>73</v>
       </c>
@@ -2311,7 +2292,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="37" t="s">
         <v>74</v>
       </c>
@@ -2325,7 +2306,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="37" t="s">
         <v>75</v>
       </c>
@@ -2339,7 +2320,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="37" t="s">
         <v>76</v>
       </c>
@@ -2353,7 +2334,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="37" t="s">
         <v>77</v>
       </c>
@@ -2367,7 +2348,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="37" t="s">
         <v>78</v>
       </c>
@@ -2377,9 +2358,9 @@
       <c r="E12" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="79"/>
-    </row>
-    <row r="13" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="77"/>
+    </row>
+    <row r="13" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="37" t="s">
         <v>79</v>
       </c>
@@ -2389,9 +2370,9 @@
       <c r="E13" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="80"/>
-    </row>
-    <row r="14" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="78"/>
+    </row>
+    <row r="14" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="37" t="s">
         <v>80</v>
       </c>
@@ -2401,9 +2382,9 @@
       <c r="E14" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="80"/>
-    </row>
-    <row r="15" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="78"/>
+    </row>
+    <row r="15" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="37" t="s">
         <v>81</v>
       </c>
@@ -2413,13 +2394,13 @@
       <c r="E15" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="80"/>
-    </row>
-    <row r="16" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
+      <c r="F15" s="78"/>
+    </row>
+    <row r="16" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="55" t="s">
         <v>84</v>
       </c>
@@ -2427,7 +2408,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="52" t="s">
         <v>68</v>
       </c>
@@ -2441,7 +2422,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="37" t="s">
         <v>69</v>
       </c>
@@ -2455,7 +2436,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="37" t="s">
         <v>70</v>
       </c>
@@ -2469,7 +2450,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="37" t="s">
         <v>71</v>
       </c>
@@ -2483,7 +2464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="37" t="s">
         <v>72</v>
       </c>
@@ -2497,7 +2478,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="37" t="s">
         <v>73</v>
       </c>
@@ -2511,7 +2492,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="37" t="s">
         <v>74</v>
       </c>
@@ -2525,7 +2506,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="37" t="s">
         <v>75</v>
       </c>
@@ -2539,7 +2520,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="37" t="s">
         <v>76</v>
       </c>
@@ -2553,7 +2534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="37" t="s">
         <v>77</v>
       </c>
@@ -2567,7 +2548,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="37" t="s">
         <v>78</v>
       </c>
@@ -2577,9 +2558,9 @@
       <c r="E27" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="79"/>
-    </row>
-    <row r="28" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="77"/>
+    </row>
+    <row r="28" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="37" t="s">
         <v>79</v>
       </c>
@@ -2589,9 +2570,9 @@
       <c r="E28" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="80"/>
-    </row>
-    <row r="29" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="78"/>
+    </row>
+    <row r="29" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="37" t="s">
         <v>80</v>
       </c>
@@ -2601,9 +2582,9 @@
       <c r="E29" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="80"/>
-    </row>
-    <row r="30" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="78"/>
+    </row>
+    <row r="30" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="37" t="s">
         <v>81</v>
       </c>
@@ -2613,7 +2594,7 @@
       <c r="E30" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="80"/>
+      <c r="F30" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2623,7 +2604,7 @@
     <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="15" max="16383" man="1"/>
   </rowBreaks>
@@ -2638,12 +2619,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="44" t="s">
         <v>107</v>
       </c>
@@ -2652,7 +2633,7 @@
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
-    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>46</v>
       </c>
@@ -2669,7 +2650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -2686,7 +2667,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
@@ -2703,7 +2684,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>109</v>
       </c>
@@ -2720,7 +2701,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -2737,7 +2718,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
@@ -2754,7 +2735,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -2771,7 +2752,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -2788,7 +2769,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -2805,7 +2786,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -2822,7 +2803,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -2839,7 +2820,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -2856,7 +2837,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>109</v>
       </c>
@@ -2873,7 +2854,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
@@ -2890,7 +2871,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -2907,7 +2888,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="57" t="s">
         <v>110</v>
       </c>
@@ -2924,7 +2905,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="44" t="s">
         <v>108</v>
       </c>
@@ -2933,7 +2914,7 @@
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
     </row>
-    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>119</v>
       </c>
@@ -2948,7 +2929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>109</v>
       </c>
@@ -2962,7 +2943,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>109</v>
       </c>
@@ -2976,7 +2957,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>109</v>
       </c>
@@ -2990,7 +2971,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -3004,7 +2985,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -3018,7 +2999,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -3032,7 +3013,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
@@ -3046,7 +3027,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
@@ -3060,7 +3041,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -3074,7 +3055,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -3088,7 +3069,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
@@ -3102,7 +3083,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>109</v>
       </c>
@@ -3116,7 +3097,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
@@ -3130,7 +3111,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>109</v>
       </c>
@@ -3144,7 +3125,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="57" t="s">
         <v>115</v>
       </c>
@@ -3159,11 +3140,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3181,12 +3162,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="44" t="s">
         <v>120</v>
       </c>
@@ -3195,7 +3176,7 @@
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
-    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>46</v>
       </c>
@@ -3212,7 +3193,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -3229,7 +3210,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
@@ -3246,7 +3227,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>109</v>
       </c>
@@ -3263,7 +3244,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -3280,7 +3261,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
@@ -3297,7 +3278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -3314,7 +3295,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -3331,7 +3312,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -3348,7 +3329,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -3365,7 +3346,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -3382,7 +3363,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -3399,7 +3380,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>109</v>
       </c>
@@ -3416,7 +3397,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
@@ -3433,7 +3414,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -3450,7 +3431,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="57" t="s">
         <v>122</v>
       </c>
@@ -3467,7 +3448,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="44" t="s">
         <v>121</v>
       </c>
@@ -3476,7 +3457,7 @@
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
     </row>
-    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>62</v>
       </c>
@@ -3493,7 +3474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>109</v>
       </c>
@@ -3510,7 +3491,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>109</v>
       </c>
@@ -3527,7 +3508,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>109</v>
       </c>
@@ -3544,7 +3525,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -3561,7 +3542,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -3578,7 +3559,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -3595,7 +3576,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
@@ -3612,7 +3593,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
@@ -3629,7 +3610,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -3646,7 +3627,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -3663,7 +3644,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
@@ -3680,7 +3661,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>109</v>
       </c>
@@ -3697,7 +3678,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
@@ -3714,7 +3695,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>109</v>
       </c>
@@ -3731,7 +3712,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="57" t="s">
         <v>126</v>
       </c>
@@ -3748,11 +3729,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3770,12 +3751,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="4" width="19.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="44" t="s">
         <v>131</v>
       </c>
@@ -3783,7 +3764,7 @@
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
     </row>
-    <row r="2" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>132</v>
       </c>
@@ -3797,7 +3778,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -3811,7 +3792,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
@@ -3825,7 +3806,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>109</v>
       </c>
@@ -3839,7 +3820,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -3853,7 +3834,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
@@ -3867,7 +3848,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -3881,7 +3862,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -3895,7 +3876,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -3909,7 +3890,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -3923,7 +3904,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -3937,7 +3918,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -3951,7 +3932,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>109</v>
       </c>
@@ -3965,7 +3946,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
@@ -3979,7 +3960,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -3993,7 +3974,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="57" t="s">
         <v>136</v>
       </c>
@@ -4007,7 +3988,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="44" t="s">
         <v>130</v>
       </c>
@@ -4015,7 +3996,7 @@
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
     </row>
-    <row r="19" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>132</v>
       </c>
@@ -4029,7 +4010,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>109</v>
       </c>
@@ -4043,7 +4024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>109</v>
       </c>
@@ -4057,7 +4038,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>109</v>
       </c>
@@ -4071,7 +4052,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -4085,7 +4066,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -4099,7 +4080,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -4113,7 +4094,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
@@ -4127,7 +4108,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
@@ -4141,7 +4122,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -4155,7 +4136,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -4169,7 +4150,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
@@ -4183,7 +4164,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>109</v>
       </c>
@@ -4197,7 +4178,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
@@ -4211,7 +4192,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>109</v>
       </c>
@@ -4225,7 +4206,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="57" t="s">
         <v>140</v>
       </c>
@@ -4239,11 +4220,11 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="36" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="37" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="38" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="39" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -4257,49 +4238,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F552AE25-CC3E-D247-9704-FB16A32357CF}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="12.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="44" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="67" t="s">
+      <c r="B2" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="66" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="61" t="s">
         <v>144</v>
       </c>
@@ -4325,7 +4306,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="61" t="s">
         <v>149</v>
       </c>
@@ -4351,7 +4332,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="61" t="s">
         <v>158</v>
       </c>
@@ -4377,38 +4358,38 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A6" s="44" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A7" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="67" t="s">
+      <c r="B7" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="66" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="61" t="s">
         <v>144</v>
       </c>
@@ -4434,7 +4415,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="61" t="s">
         <v>149</v>
       </c>
@@ -4460,7 +4441,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="61" t="s">
         <v>158</v>
       </c>
@@ -4486,38 +4467,38 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="44" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="65" t="s">
+    <row r="12" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="67" t="s">
+      <c r="B12" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="66" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="61" t="s">
         <v>144</v>
       </c>
@@ -4543,7 +4524,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="61" t="s">
         <v>149</v>
       </c>
@@ -4569,7 +4550,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="61" t="s">
         <v>158</v>
       </c>
@@ -4595,38 +4576,38 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="44" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="65" t="s">
+    <row r="17" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A17" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="67" t="s">
+      <c r="B17" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="66" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="61" t="s">
         <v>144</v>
       </c>
@@ -4652,7 +4633,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="61" t="s">
         <v>149</v>
       </c>
@@ -4678,7 +4659,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="61" t="s">
         <v>158</v>
       </c>
@@ -4704,38 +4685,38 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A21" s="44" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="65" t="s">
+    <row r="22" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A22" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="67" t="s">
+      <c r="B22" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="66" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="61" t="s">
         <v>144</v>
       </c>
@@ -4761,7 +4742,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="61" t="s">
         <v>149</v>
       </c>
@@ -4787,7 +4768,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="61" t="s">
         <v>158</v>
       </c>
@@ -4813,38 +4794,38 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A26" s="44" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="65" t="s">
+    <row r="27" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A27" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" s="67" t="s">
+      <c r="B27" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="66" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="61" t="s">
         <v>144</v>
       </c>
@@ -4870,7 +4851,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="61" t="s">
         <v>149</v>
       </c>
@@ -4896,7 +4877,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="61" t="s">
         <v>158</v>
       </c>
@@ -4924,7 +4905,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="86" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="86" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="15" max="16383" man="1"/>
   </rowBreaks>
@@ -4939,12 +4920,12 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4961,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4978,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4995,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5012,7 +4993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -5029,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -5046,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -5063,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -5080,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -5097,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -5114,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -5131,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -5148,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -5165,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -5182,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -5199,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -5216,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -5233,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -5250,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -5267,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -5284,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -5301,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -5318,7 +5299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -5335,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -5352,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -5369,7 +5350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -5386,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -5403,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -5420,7 +5401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -5437,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -5454,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -5471,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -5488,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -5505,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -5536,27 +5517,27 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -5577,7 +5558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
@@ -5598,7 +5579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5618,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5638,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -5658,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -5678,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5698,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -5718,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5738,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5758,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -5778,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -5798,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -5818,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -5838,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -5858,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -5878,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -5898,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -5918,20 +5899,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+    <row r="20" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-    </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -5952,7 +5933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -5972,7 +5953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -5992,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -6012,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -6032,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -6052,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -6072,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -6092,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -6112,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -6132,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -6152,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -6172,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -6192,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -6212,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -6232,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -6252,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -6272,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -6312,7 +6293,7 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
@@ -6320,19 +6301,19 @@
     <col min="5" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-    </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
@@ -6350,7 +6331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -6368,7 +6349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -6385,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -6402,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -6419,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -6436,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -6453,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -6470,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -6487,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -6504,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -6521,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -6538,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -6555,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -6572,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -6589,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -6606,7 +6587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -6623,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -6640,19 +6621,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="75"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-    </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>14</v>
       </c>
@@ -6670,7 +6651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -6687,7 +6668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -6704,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -6721,7 +6702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -6738,7 +6719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -6755,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -6772,7 +6753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -6789,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -6806,7 +6787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -6823,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -6840,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -6857,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -6874,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -6891,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -6908,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -6925,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -6942,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -6959,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -6980,7 +6961,7 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
@@ -6988,18 +6969,18 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="77"/>
-    </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E1" s="75"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
@@ -7014,7 +6995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
@@ -7029,7 +7010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -7043,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -7057,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -7071,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -7085,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -7099,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -7113,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -7127,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -7141,7 +7122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -7155,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -7169,7 +7150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -7183,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -7197,7 +7178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -7211,7 +7192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -7225,7 +7206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -7239,7 +7220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -7253,18 +7234,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+    <row r="20" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="75"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="77"/>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E20" s="75"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
         <v>13</v>
       </c>
@@ -7279,7 +7260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="17" t="s">
         <v>34</v>
       </c>
@@ -7294,7 +7275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -7308,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -7322,7 +7303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -7336,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -7350,7 +7331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -7364,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -7378,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -7392,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -7406,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -7420,7 +7401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -7434,7 +7415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -7448,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -7462,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -7476,7 +7457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -7490,7 +7471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -7504,7 +7485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -7518,7 +7499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -7539,12 +7520,12 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -7567,7 +7548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="35" t="s">
         <v>27</v>
       </c>
@@ -7590,7 +7571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37"/>
       <c r="B3" s="32"/>
       <c r="C3" s="38"/>
@@ -7599,7 +7580,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37"/>
       <c r="B4" s="32"/>
       <c r="C4" s="38"/>
@@ -7608,7 +7589,7 @@
       <c r="F4" s="32"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37"/>
       <c r="B5" s="32"/>
       <c r="C5" s="38"/>
@@ -7617,7 +7598,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37"/>
       <c r="B6" s="32"/>
       <c r="C6" s="38"/>
@@ -7626,7 +7607,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37"/>
       <c r="B7" s="32"/>
       <c r="C7" s="38"/>
@@ -7635,7 +7616,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
       <c r="B8" s="32"/>
       <c r="C8" s="38"/>
@@ -7644,7 +7625,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37"/>
       <c r="B9" s="32"/>
       <c r="C9" s="38"/>
@@ -7653,7 +7634,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37"/>
       <c r="B10" s="32"/>
       <c r="C10" s="38"/>
@@ -7662,7 +7643,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="37"/>
       <c r="B11" s="32"/>
       <c r="C11" s="38"/>
@@ -7671,7 +7652,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37"/>
       <c r="B12" s="32"/>
       <c r="C12" s="38"/>
@@ -7680,7 +7661,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37"/>
       <c r="B13" s="32"/>
       <c r="C13" s="38"/>
@@ -7689,7 +7670,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
       <c r="B14" s="32"/>
       <c r="C14" s="38"/>
@@ -7698,7 +7679,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37"/>
       <c r="B15" s="32"/>
       <c r="C15" s="38"/>
@@ -7707,7 +7688,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37"/>
       <c r="B16" s="32"/>
       <c r="C16" s="38"/>
@@ -7716,7 +7697,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="37"/>
       <c r="B17" s="32"/>
       <c r="C17" s="38"/>
@@ -7725,7 +7706,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="37"/>
       <c r="B18" s="32"/>
       <c r="C18" s="38"/>
@@ -7734,7 +7715,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39"/>
       <c r="B19" s="34"/>
       <c r="C19" s="40"/>
@@ -7743,7 +7724,7 @@
       <c r="F19" s="34"/>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>20</v>
       </c>
@@ -7766,7 +7747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="35" t="s">
         <v>27</v>
       </c>
@@ -7789,7 +7770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37"/>
       <c r="B22" s="32"/>
       <c r="C22" s="38"/>
@@ -7798,7 +7779,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="37"/>
       <c r="B23" s="32"/>
       <c r="C23" s="38"/>
@@ -7807,7 +7788,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="37"/>
       <c r="B24" s="32"/>
       <c r="C24" s="38"/>
@@ -7816,7 +7797,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="37"/>
       <c r="B25" s="32"/>
       <c r="C25" s="38"/>
@@ -7825,7 +7806,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="37"/>
       <c r="B26" s="32"/>
       <c r="C26" s="38"/>
@@ -7834,7 +7815,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="37"/>
       <c r="B27" s="32"/>
       <c r="C27" s="38"/>
@@ -7843,7 +7824,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37"/>
       <c r="B28" s="32"/>
       <c r="C28" s="38"/>
@@ -7852,7 +7833,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37"/>
       <c r="B29" s="32"/>
       <c r="C29" s="38"/>
@@ -7861,7 +7842,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="37"/>
       <c r="B30" s="32"/>
       <c r="C30" s="38"/>
@@ -7870,7 +7851,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="37"/>
       <c r="B31" s="32"/>
       <c r="C31" s="38"/>
@@ -7879,7 +7860,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="37"/>
       <c r="B32" s="32"/>
       <c r="C32" s="38"/>
@@ -7888,7 +7869,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="37"/>
       <c r="B33" s="32"/>
       <c r="C33" s="38"/>
@@ -7897,7 +7878,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="37"/>
       <c r="B34" s="32"/>
       <c r="C34" s="38"/>
@@ -7906,7 +7887,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="37"/>
       <c r="B35" s="32"/>
       <c r="C35" s="38"/>
@@ -7915,7 +7896,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="37"/>
       <c r="B36" s="32"/>
       <c r="C36" s="38"/>
@@ -7924,7 +7905,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="37"/>
       <c r="B37" s="32"/>
       <c r="C37" s="38"/>
@@ -7933,10 +7914,10 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7951,28 +7932,28 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="10" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="73" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
         <v>38</v>
       </c>
@@ -8004,7 +7985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -8016,7 +7997,7 @@
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -8028,7 +8009,7 @@
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -8040,7 +8021,7 @@
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -8052,7 +8033,7 @@
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -8064,7 +8045,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -8076,7 +8057,7 @@
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -8088,7 +8069,7 @@
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -8100,7 +8081,7 @@
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -8112,7 +8093,7 @@
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -8124,7 +8105,7 @@
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -8136,7 +8117,7 @@
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -8148,7 +8129,7 @@
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -8160,7 +8141,7 @@
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -8172,7 +8153,7 @@
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -8184,7 +8165,7 @@
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -8196,7 +8177,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -8208,7 +8189,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -8220,7 +8201,7 @@
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -8232,7 +8213,7 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -8244,7 +8225,7 @@
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -8256,7 +8237,7 @@
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -8268,7 +8249,7 @@
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -8280,7 +8261,7 @@
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -8292,7 +8273,7 @@
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -8304,7 +8285,7 @@
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -8316,7 +8297,7 @@
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
     </row>
-    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -8328,7 +8309,7 @@
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -8340,23 +8321,23 @@
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="73" t="s">
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-    </row>
-    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+    </row>
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="42" t="s">
         <v>38</v>
       </c>
@@ -8388,7 +8369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -8400,7 +8381,7 @@
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
     </row>
-    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -8412,7 +8393,7 @@
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -8424,7 +8405,7 @@
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -8436,7 +8417,7 @@
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -8448,7 +8429,7 @@
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -8460,7 +8441,7 @@
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -8472,7 +8453,7 @@
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
@@ -8484,7 +8465,7 @@
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -8496,7 +8477,7 @@
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
     </row>
-    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
@@ -8508,7 +8489,7 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
     </row>
-    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
@@ -8520,7 +8501,7 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -8532,7 +8513,7 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
     </row>
-    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -8544,7 +8525,7 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
     </row>
-    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
@@ -8556,7 +8537,7 @@
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
     </row>
-    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -8568,7 +8549,7 @@
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
@@ -8580,7 +8561,7 @@
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
     </row>
-    <row r="49" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -8592,7 +8573,7 @@
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
     </row>
-    <row r="50" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -8604,7 +8585,7 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
     </row>
-    <row r="51" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
@@ -8616,7 +8597,7 @@
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
     </row>
-    <row r="52" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
@@ -8628,7 +8609,7 @@
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
     </row>
-    <row r="53" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="32"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
@@ -8640,7 +8621,7 @@
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
     </row>
-    <row r="54" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
@@ -8652,7 +8633,7 @@
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
     </row>
-    <row r="55" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -8664,7 +8645,7 @@
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
     </row>
-    <row r="56" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
@@ -8676,7 +8657,7 @@
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="32"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
@@ -8688,7 +8669,7 @@
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
     </row>
-    <row r="58" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
@@ -8700,7 +8681,7 @@
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
     </row>
-    <row r="59" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="32"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
@@ -8712,7 +8693,7 @@
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
     </row>
-    <row r="60" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -8724,12 +8705,12 @@
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
     </row>
-    <row r="61" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F1:J1"/>
@@ -8746,636 +8727,636 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63C65C7-1D87-E543-A04B-84291704A758}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11.1640625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="67" t="s">
+      <c r="B1" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="66" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A2" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>109</v>
+      <c r="B2" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A3" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>109</v>
+      <c r="B3" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H3" s="58" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A4" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>109</v>
+      <c r="B4" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H4" s="58" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A5" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>109</v>
+      <c r="B5" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H5" s="58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A6" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="64" t="s">
+      <c r="B6" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="63" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="67" t="s">
+      <c r="B7" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="66" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A8" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>109</v>
+      <c r="B8" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H8" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="57" t="s">
-        <v>109</v>
+      <c r="B9" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H9" s="58" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>109</v>
+      <c r="B10" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H10" s="58" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>109</v>
+      <c r="B11" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H11" s="58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A12" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="64" t="s">
+      <c r="B12" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="63" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="65" t="s">
+    <row r="13" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="67" t="s">
+      <c r="B13" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="66" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A14" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>109</v>
+      <c r="B14" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H14" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A15" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>109</v>
+      <c r="B15" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H15" s="58" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>109</v>
+      <c r="B16" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H16" s="58" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A17" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>109</v>
+      <c r="B17" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H17" s="58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A18" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="64" t="s">
+      <c r="B18" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="63" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="68" t="s">
+    <row r="19" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A19" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="70" t="s">
+      <c r="B19" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="68" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="57" t="s">
-        <v>109</v>
+      <c r="B20" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H20" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A21" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>109</v>
+      <c r="B21" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H21" s="58" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A22" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>109</v>
+      <c r="B22" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H22" s="58" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A23" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="57" t="s">
-        <v>109</v>
+      <c r="B23" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H23" s="58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="57" t="s">
-        <v>109</v>
+      <c r="B24" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="H24" s="58" t="s">
         <v>140</v>
@@ -9383,7 +9364,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="12" max="16383" man="1"/>
   </rowBreaks>
@@ -9398,12 +9379,12 @@
       <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
@@ -9412,7 +9393,7 @@
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
-    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>46</v>
       </c>
@@ -9429,7 +9410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -9446,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -9463,7 +9444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -9480,7 +9461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -9497,7 +9478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -9514,7 +9495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -9531,7 +9512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -9548,7 +9529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -9565,7 +9546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -9582,7 +9563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -9599,7 +9580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -9616,7 +9597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -9633,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -9650,7 +9631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -9667,7 +9648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A17" s="47" t="s">
         <v>51</v>
       </c>
@@ -9684,7 +9665,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="44" t="s">
         <v>45</v>
       </c>
@@ -9693,7 +9674,7 @@
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
     </row>
-    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>62</v>
       </c>
@@ -9710,7 +9691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -9727,7 +9708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -9744,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -9761,7 +9742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -9778,7 +9759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -9795,7 +9776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -9812,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -9829,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -9846,7 +9827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -9863,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -9880,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -9897,7 +9878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -9914,7 +9895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -9931,7 +9912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -9948,7 +9929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A34" s="47" t="s">
         <v>65</v>
       </c>
@@ -9965,11 +9946,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="36" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="37" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="38" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="39" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Paradigm Practice Sheets.xlsx
+++ b/Paradigm Practice Sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\git\learning_biblical_hebrew_flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B9AFE7-9ADA-45C8-963C-F7A38C813546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDA4D9A-57D0-4179-AB50-E76CB94542D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="4300" windowWidth="28800" windowHeight="15540" activeTab="7" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
+    <workbookView xWindow="-110" yWindow="-21710" windowWidth="38620" windowHeight="21820" firstSheet="4" activeTab="13" xr2:uid="{4C87BD8E-1E8C-C245-855C-B75398CF1004}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Qal Imperfect" sheetId="17" r:id="rId12"/>
     <sheet name="Qal Participles" sheetId="18" r:id="rId13"/>
     <sheet name="Piel, Pual, Hithpael" sheetId="21" r:id="rId14"/>
+    <sheet name="Hiphil, Hophal" sheetId="22" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="175">
   <si>
     <t>שׁמר</t>
   </si>
@@ -541,13 +542,65 @@
   </si>
   <si>
     <t>קט ל</t>
+  </si>
+  <si>
+    <t>Hiphil</t>
+  </si>
+  <si>
+    <t>Hophal</t>
+  </si>
+  <si>
+    <t>מַקְטִיל</t>
+  </si>
+  <si>
+    <t>הַקְטֵל</t>
+  </si>
+  <si>
+    <t>הַקְטִיל</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> הִקְטִיל</t>
+  </si>
+  <si>
+    <t>הָקְטַל</t>
+  </si>
+  <si>
+    <t>הָקְטֵל</t>
+  </si>
+  <si>
+    <t>מָקְטָל</t>
+  </si>
+  <si>
+    <r>
+      <t>קט</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ל</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -620,6 +673,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4238,7 +4298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F552AE25-CC3E-D247-9704-FB16A32357CF}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -4908,6 +4968,466 @@
   <pageSetup scale="86" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="15" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E7FBA1-30F5-4659-A84C-89058856182A}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A4" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A7" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A10" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A11" s="44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A13" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A14" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A16" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A17" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A18" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A19" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A20" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="84" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8727,7 +9247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63C65C7-1D87-E543-A04B-84291704A758}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
